--- a/data/924/PPIP/Corporate Goods Price Indices.xlsx
+++ b/data/924/PPIP/Corporate Goods Price Indices.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,23 +406,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>107.5</v>
+        <v>106.1</v>
       </c>
       <c r="D2" t="n">
-        <v>96.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="E2" t="n">
-        <v>104.2</v>
+        <v>103.2</v>
       </c>
       <c r="F2" t="n">
-        <v>118.6</v>
+        <v>118.7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -433,23 +433,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>109.8</v>
+        <v>106.4</v>
       </c>
       <c r="D3" t="n">
-        <v>98.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>107.8</v>
+        <v>103.4</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8</v>
+        <v>118</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -460,23 +460,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>110.1</v>
+        <v>107.5</v>
       </c>
       <c r="D4" t="n">
-        <v>92.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>111.4</v>
+        <v>104.2</v>
       </c>
       <c r="F4" t="n">
-        <v>123.7</v>
+        <v>118.6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -487,23 +487,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>107.9</v>
+        <v>109.8</v>
       </c>
       <c r="D5" t="n">
-        <v>89.8</v>
+        <v>98.2</v>
       </c>
       <c r="E5" t="n">
-        <v>114.4</v>
+        <v>107.8</v>
       </c>
       <c r="F5" t="n">
-        <v>117.6</v>
+        <v>123.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -514,23 +514,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.6</v>
+        <v>110.1</v>
       </c>
       <c r="D6" t="n">
-        <v>93.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>116.3</v>
+        <v>111.4</v>
       </c>
       <c r="F6" t="n">
-        <v>115.1</v>
+        <v>123.7</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -551,13 +551,13 @@
         <v>107.9</v>
       </c>
       <c r="D7" t="n">
-        <v>94.5</v>
+        <v>89.8</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>114.4</v>
       </c>
       <c r="F7" t="n">
-        <v>115.3</v>
+        <v>117.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -568,23 +568,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>108.1</v>
+        <v>107.6</v>
       </c>
       <c r="D8" t="n">
-        <v>96.5</v>
+        <v>93.2</v>
       </c>
       <c r="E8" t="n">
-        <v>121.5</v>
+        <v>116.3</v>
       </c>
       <c r="F8" t="n">
-        <v>114.9</v>
+        <v>115.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -595,23 +595,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>109.1</v>
+        <v>107.9</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="E9" t="n">
         <v>121</v>
       </c>
       <c r="F9" t="n">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -622,23 +622,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5</v>
+        <v>108.1</v>
       </c>
       <c r="D10" t="n">
-        <v>99.7</v>
+        <v>96.5</v>
       </c>
       <c r="E10" t="n">
-        <v>117.4</v>
+        <v>121.5</v>
       </c>
       <c r="F10" t="n">
-        <v>111.1</v>
+        <v>114.9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -649,23 +649,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>105.4</v>
+        <v>109.1</v>
       </c>
       <c r="D11" t="n">
-        <v>101.2</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
+        <v>121</v>
+      </c>
+      <c r="F11" t="n">
         <v>115.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>104.1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -676,23 +676,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>102.9</v>
+        <v>107.5</v>
       </c>
       <c r="D12" t="n">
-        <v>101.5</v>
+        <v>99.7</v>
       </c>
       <c r="E12" t="n">
-        <v>113.9</v>
+        <v>117.4</v>
       </c>
       <c r="F12" t="n">
-        <v>97.59999999999999</v>
+        <v>111.1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="D13" t="n">
         <v>101.2</v>
       </c>
-      <c r="D13" t="n">
-        <v>101.8</v>
-      </c>
       <c r="E13" t="n">
-        <v>110.7</v>
+        <v>115.2</v>
       </c>
       <c r="F13" t="n">
-        <v>93.7</v>
+        <v>104.1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -730,23 +730,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>100.2</v>
+        <v>102.9</v>
       </c>
       <c r="D14" t="n">
-        <v>100.6</v>
+        <v>101.5</v>
       </c>
       <c r="E14" t="n">
-        <v>108.7</v>
+        <v>113.9</v>
       </c>
       <c r="F14" t="n">
-        <v>92.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -757,23 +757,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>101.2</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="E15" t="n">
-        <v>106.4</v>
+        <v>110.7</v>
       </c>
       <c r="F15" t="n">
-        <v>90.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -784,23 +784,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>98.5</v>
+        <v>100.2</v>
       </c>
       <c r="D16" t="n">
-        <v>102.8</v>
+        <v>100.6</v>
       </c>
       <c r="E16" t="n">
-        <v>105.3</v>
+        <v>108.7</v>
       </c>
       <c r="F16" t="n">
-        <v>90.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -811,23 +811,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="D17" t="n">
-        <v>106.1</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>103.7</v>
+        <v>106.4</v>
       </c>
       <c r="F17" t="n">
-        <v>91.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -838,23 +838,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D18" t="n">
-        <v>107.9</v>
+        <v>102.8</v>
       </c>
       <c r="E18" t="n">
-        <v>103.5</v>
+        <v>105.3</v>
       </c>
       <c r="F18" t="n">
-        <v>91.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -865,23 +865,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="D19" t="n">
-        <v>109.6</v>
+        <v>106.1</v>
       </c>
       <c r="E19" t="n">
-        <v>101.8</v>
+        <v>103.7</v>
       </c>
       <c r="F19" t="n">
-        <v>89.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -892,23 +892,23 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>109.1</v>
+        <v>107.9</v>
       </c>
       <c r="E20" t="n">
-        <v>102</v>
+        <v>103.5</v>
       </c>
       <c r="F20" t="n">
-        <v>87.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -919,23 +919,23 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>96.7</v>
+        <v>98.5</v>
       </c>
       <c r="D21" t="n">
-        <v>109.2</v>
+        <v>109.6</v>
       </c>
       <c r="E21" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="F21" t="n">
-        <v>85</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -946,23 +946,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>97</v>
+        <v>97.7</v>
       </c>
       <c r="D22" t="n">
-        <v>111.4</v>
+        <v>109.1</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3</v>
+        <v>102</v>
       </c>
       <c r="F22" t="n">
-        <v>86.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -973,23 +973,23 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>98.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D23" t="n">
-        <v>113.5</v>
+        <v>109.2</v>
       </c>
       <c r="E23" t="n">
-        <v>104.1</v>
+        <v>101.7</v>
       </c>
       <c r="F23" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1000,23 +1000,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>100.3</v>
+        <v>97</v>
       </c>
       <c r="D24" t="n">
-        <v>117.2</v>
+        <v>111.4</v>
       </c>
       <c r="E24" t="n">
-        <v>105</v>
+        <v>102.3</v>
       </c>
       <c r="F24" t="n">
-        <v>97.5</v>
+        <v>86.8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1027,23 +1027,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>118.6</v>
+        <v>113.5</v>
       </c>
       <c r="E25" t="n">
-        <v>106.9</v>
+        <v>104.1</v>
       </c>
       <c r="F25" t="n">
-        <v>100.4</v>
+        <v>92</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1054,23 +1054,23 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="D26" t="n">
-        <v>117.1</v>
+        <v>117.2</v>
       </c>
       <c r="E26" t="n">
-        <v>106.9</v>
+        <v>105</v>
       </c>
       <c r="F26" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1081,23 +1081,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="D27" t="n">
-        <v>115.9</v>
+        <v>118.6</v>
       </c>
       <c r="E27" t="n">
-        <v>105.8</v>
+        <v>106.9</v>
       </c>
       <c r="F27" t="n">
-        <v>94.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1108,23 +1108,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>98.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="D28" t="n">
-        <v>112.2</v>
+        <v>117.1</v>
       </c>
       <c r="E28" t="n">
-        <v>107.4</v>
+        <v>106.9</v>
       </c>
       <c r="F28" t="n">
-        <v>92.8</v>
+        <v>98</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1135,23 +1135,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>109.3</v>
+        <v>115.9</v>
       </c>
       <c r="E29" t="n">
-        <v>108.8</v>
+        <v>105.8</v>
       </c>
       <c r="F29" t="n">
-        <v>93.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1162,23 +1162,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>108.2</v>
+        <v>112.2</v>
       </c>
       <c r="E30" t="n">
-        <v>112.2</v>
+        <v>107.4</v>
       </c>
       <c r="F30" t="n">
-        <v>94.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1189,23 +1189,23 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>99.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>107.4</v>
+        <v>109.3</v>
       </c>
       <c r="E31" t="n">
-        <v>114.7</v>
+        <v>108.8</v>
       </c>
       <c r="F31" t="n">
-        <v>95.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1216,23 +1216,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="D32" t="n">
-        <v>107.2</v>
+        <v>108.2</v>
       </c>
       <c r="E32" t="n">
         <v>112.2</v>
       </c>
       <c r="F32" t="n">
-        <v>97.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1243,23 +1243,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="D33" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="E33" t="n">
-        <v>110.4</v>
+        <v>114.7</v>
       </c>
       <c r="F33" t="n">
-        <v>99.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1270,23 +1270,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>101.1</v>
+        <v>99.8</v>
       </c>
       <c r="D34" t="n">
-        <v>107</v>
+        <v>107.2</v>
       </c>
       <c r="E34" t="n">
-        <v>109.1</v>
+        <v>112.2</v>
       </c>
       <c r="F34" t="n">
-        <v>100.6</v>
+        <v>97.5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1297,23 +1297,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D35" t="n">
-        <v>103.7</v>
+        <v>107.3</v>
       </c>
       <c r="E35" t="n">
-        <v>106.7</v>
+        <v>110.4</v>
       </c>
       <c r="F35" t="n">
-        <v>101.1</v>
+        <v>99.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1324,23 +1324,23 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>99.7</v>
+        <v>101.1</v>
       </c>
       <c r="D36" t="n">
-        <v>98.90000000000001</v>
+        <v>107</v>
       </c>
       <c r="E36" t="n">
-        <v>105.6</v>
+        <v>109.1</v>
       </c>
       <c r="F36" t="n">
-        <v>99</v>
+        <v>100.6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1351,23 +1351,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>99.5</v>
+        <v>100.6</v>
       </c>
       <c r="D37" t="n">
-        <v>98.3</v>
+        <v>103.7</v>
       </c>
       <c r="E37" t="n">
-        <v>104.7</v>
+        <v>106.7</v>
       </c>
       <c r="F37" t="n">
-        <v>98.59999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1378,23 +1378,23 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="D38" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E38" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="F38" t="n">
         <v>99</v>
-      </c>
-      <c r="E38" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>101.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1405,23 +1405,23 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>101.8</v>
+        <v>99.5</v>
       </c>
       <c r="D39" t="n">
-        <v>99.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E39" t="n">
-        <v>107.3</v>
+        <v>104.7</v>
       </c>
       <c r="F39" t="n">
-        <v>106.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1432,23 +1432,23 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>102.8</v>
+        <v>100.3</v>
       </c>
       <c r="D40" t="n">
-        <v>101.4</v>
+        <v>99</v>
       </c>
       <c r="E40" t="n">
-        <v>106.4</v>
+        <v>105.4</v>
       </c>
       <c r="F40" t="n">
-        <v>109.4</v>
+        <v>101.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1459,23 +1459,23 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>103.2</v>
+        <v>101.8</v>
       </c>
       <c r="D41" t="n">
-        <v>102.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>105.5</v>
+        <v>107.3</v>
       </c>
       <c r="F41" t="n">
-        <v>109.4</v>
+        <v>106.3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1486,23 +1486,23 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>103.3</v>
+        <v>102.8</v>
       </c>
       <c r="D42" t="n">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
       <c r="E42" t="n">
-        <v>103.5</v>
+        <v>106.4</v>
       </c>
       <c r="F42" t="n">
-        <v>109.7</v>
+        <v>109.4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1513,23 +1513,23 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>103.9</v>
+        <v>103.2</v>
       </c>
       <c r="D43" t="n">
-        <v>100.1</v>
+        <v>102.1</v>
       </c>
       <c r="E43" t="n">
-        <v>104</v>
+        <v>105.5</v>
       </c>
       <c r="F43" t="n">
-        <v>110.7</v>
+        <v>109.4</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1540,23 +1540,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>104.1</v>
+        <v>103.3</v>
       </c>
       <c r="D44" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="E44" t="n">
-        <v>104.9</v>
+        <v>103.5</v>
       </c>
       <c r="F44" t="n">
-        <v>109.2</v>
+        <v>109.7</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1567,23 +1567,23 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="D45" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="E45" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="F45" t="n">
-        <v>106.8</v>
+        <v>110.7</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1594,23 +1594,23 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>102.8</v>
+        <v>104.1</v>
       </c>
       <c r="D46" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3</v>
+        <v>104.9</v>
       </c>
       <c r="F46" t="n">
-        <v>104.7</v>
+        <v>109.2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1621,23 +1621,23 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>102.7</v>
+        <v>103.6</v>
       </c>
       <c r="D47" t="n">
         <v>99.5</v>
       </c>
       <c r="E47" t="n">
-        <v>101.6</v>
+        <v>104.2</v>
       </c>
       <c r="F47" t="n">
-        <v>103.9</v>
+        <v>106.8</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1648,23 +1648,23 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>103.4</v>
+        <v>102.8</v>
       </c>
       <c r="D48" t="n">
-        <v>100.8</v>
+        <v>98.2</v>
       </c>
       <c r="E48" t="n">
-        <v>103.9</v>
+        <v>102.3</v>
       </c>
       <c r="F48" t="n">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1675,23 +1675,23 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>48</v>
       </c>
       <c r="C49" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F49" t="n">
         <v>103.9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>104.8</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1702,23 +1702,23 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>104.4</v>
+        <v>103.4</v>
       </c>
       <c r="D50" t="n">
-        <v>98.59999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="E50" t="n">
-        <v>105.6</v>
+        <v>103.9</v>
       </c>
       <c r="F50" t="n">
-        <v>105.7</v>
+        <v>104.9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1729,23 +1729,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>105.3</v>
+        <v>103.9</v>
       </c>
       <c r="D51" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="E51" t="n">
-        <v>107.6</v>
+        <v>105.6</v>
       </c>
       <c r="F51" t="n">
-        <v>107.1</v>
+        <v>104.8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1756,23 +1756,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>106.8</v>
+        <v>104.4</v>
       </c>
       <c r="D52" t="n">
-        <v>99.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>111.2</v>
+        <v>105.6</v>
       </c>
       <c r="F52" t="n">
-        <v>108.6</v>
+        <v>105.7</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1783,23 +1783,23 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>106.9</v>
+        <v>105.3</v>
       </c>
       <c r="D53" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E53" t="n">
-        <v>111.8</v>
+        <v>107.6</v>
       </c>
       <c r="F53" t="n">
-        <v>109.9</v>
+        <v>107.1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1810,23 +1810,23 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D54" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E54" t="n">
-        <v>111.8</v>
+        <v>111.2</v>
       </c>
       <c r="F54" t="n">
-        <v>111</v>
+        <v>108.6</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1837,23 +1837,23 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>105.8</v>
+        <v>106.9</v>
       </c>
       <c r="D55" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>109.3</v>
+        <v>111.8</v>
       </c>
       <c r="F55" t="n">
-        <v>109.2</v>
+        <v>109.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1864,23 +1864,23 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>106.1</v>
+        <v>106.7</v>
       </c>
       <c r="D56" t="n">
-        <v>98.2</v>
+        <v>99.8</v>
       </c>
       <c r="E56" t="n">
-        <v>110.2</v>
+        <v>111.8</v>
       </c>
       <c r="F56" t="n">
-        <v>110.7</v>
+        <v>111</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1891,23 +1891,23 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>106.2</v>
+        <v>105.8</v>
       </c>
       <c r="D57" t="n">
-        <v>97</v>
+        <v>98.7</v>
       </c>
       <c r="E57" t="n">
-        <v>110.2</v>
+        <v>109.3</v>
       </c>
       <c r="F57" t="n">
-        <v>114.2</v>
+        <v>109.2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1918,23 +1918,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>106.8</v>
+        <v>106.1</v>
       </c>
       <c r="D58" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="E58" t="n">
-        <v>112.2</v>
+        <v>110.2</v>
       </c>
       <c r="F58" t="n">
-        <v>118.6</v>
+        <v>110.7</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1945,23 +1945,23 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>108.4</v>
+        <v>106.2</v>
       </c>
       <c r="D59" t="n">
-        <v>97.7</v>
+        <v>97</v>
       </c>
       <c r="E59" t="n">
-        <v>115.8</v>
+        <v>110.2</v>
       </c>
       <c r="F59" t="n">
-        <v>120.6</v>
+        <v>114.2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1972,23 +1972,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>109.3</v>
+        <v>106.8</v>
       </c>
       <c r="D60" t="n">
-        <v>100.1</v>
+        <v>97.2</v>
       </c>
       <c r="E60" t="n">
-        <v>117.1</v>
+        <v>112.2</v>
       </c>
       <c r="F60" t="n">
-        <v>121.5</v>
+        <v>118.6</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1999,23 +1999,23 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="D61" t="n">
-        <v>104.5</v>
+        <v>97.7</v>
       </c>
       <c r="E61" t="n">
-        <v>115.2</v>
+        <v>115.8</v>
       </c>
       <c r="F61" t="n">
-        <v>117.7</v>
+        <v>120.6</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2026,23 +2026,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>106.8</v>
+        <v>109.3</v>
       </c>
       <c r="D62" t="n">
-        <v>103.5</v>
+        <v>100.1</v>
       </c>
       <c r="E62" t="n">
-        <v>112.3</v>
+        <v>117.1</v>
       </c>
       <c r="F62" t="n">
-        <v>111.2</v>
+        <v>121.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2053,23 +2053,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>62</v>
       </c>
       <c r="C63" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="D63" t="n">
         <v>104.5</v>
       </c>
-      <c r="D63" t="n">
-        <v>104.6</v>
-      </c>
       <c r="E63" t="n">
-        <v>107.3</v>
+        <v>115.2</v>
       </c>
       <c r="F63" t="n">
-        <v>106.3</v>
+        <v>117.7</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2080,23 +2080,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>101.7</v>
+        <v>106.8</v>
       </c>
       <c r="D64" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="E64" t="n">
-        <v>102.2</v>
+        <v>112.3</v>
       </c>
       <c r="F64" t="n">
-        <v>101.9</v>
+        <v>111.2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2107,23 +2107,23 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>100.2</v>
+        <v>104.5</v>
       </c>
       <c r="D65" t="n">
-        <v>101.6</v>
+        <v>104.6</v>
       </c>
       <c r="E65" t="n">
-        <v>101.5</v>
+        <v>107.3</v>
       </c>
       <c r="F65" t="n">
-        <v>98.59999999999999</v>
+        <v>106.3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2134,23 +2134,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>98.69</v>
+        <v>101.7</v>
       </c>
       <c r="D66" t="n">
-        <v>100.05</v>
+        <v>103.3</v>
       </c>
       <c r="E66" t="n">
-        <v>99.81999999999999</v>
+        <v>102.2</v>
       </c>
       <c r="F66" t="n">
-        <v>94.06</v>
+        <v>101.9</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2161,23 +2161,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>97.89</v>
+        <v>100.2</v>
       </c>
       <c r="D67" t="n">
-        <v>101.42</v>
+        <v>101.6</v>
       </c>
       <c r="E67" t="n">
-        <v>97.48</v>
+        <v>101.5</v>
       </c>
       <c r="F67" t="n">
-        <v>91.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2188,23 +2188,23 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>96.59999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="D68" t="n">
-        <v>103.4</v>
+        <v>100.05</v>
       </c>
       <c r="E68" t="n">
-        <v>94.7</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>90.2</v>
+        <v>94.06</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2215,23 +2215,23 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>96.2</v>
+        <v>97.89</v>
       </c>
       <c r="D69" t="n">
-        <v>105.3</v>
+        <v>101.42</v>
       </c>
       <c r="E69" t="n">
-        <v>95</v>
+        <v>97.48</v>
       </c>
       <c r="F69" t="n">
-        <v>89.09999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2242,23 +2242,23 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>96</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>106.9</v>
+        <v>103.4</v>
       </c>
       <c r="E70" t="n">
-        <v>95.5</v>
+        <v>94.7</v>
       </c>
       <c r="F70" t="n">
-        <v>86.7</v>
+        <v>90.2</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2269,23 +2269,23 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>94.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="D71" t="n">
-        <v>106.8</v>
+        <v>105.3</v>
       </c>
       <c r="E71" t="n">
-        <v>93.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F71" t="n">
-        <v>85.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2296,23 +2296,23 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="D72" t="n">
-        <v>105.6</v>
+        <v>106.9</v>
       </c>
       <c r="E72" t="n">
-        <v>89.7</v>
+        <v>95.5</v>
       </c>
       <c r="F72" t="n">
-        <v>85.7</v>
+        <v>86.7</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2323,20 +2323,20 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>72</v>
       </c>
       <c r="C73" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="E73" t="n">
         <v>93.40000000000001</v>
-      </c>
-      <c r="D73" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>88.2</v>
       </c>
       <c r="F73" t="n">
         <v>85.5</v>
@@ -2350,23 +2350,23 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>103.4</v>
+        <v>105.6</v>
       </c>
       <c r="E74" t="n">
-        <v>87.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="F74" t="n">
-        <v>84.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2377,23 +2377,23 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>92.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>101.3</v>
+        <v>104.7</v>
       </c>
       <c r="E75" t="n">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F75" t="n">
-        <v>84.2</v>
+        <v>85.5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2404,23 +2404,23 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D76" t="n">
-        <v>101.3</v>
+        <v>103.4</v>
       </c>
       <c r="E76" t="n">
-        <v>88.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>83.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="D77" t="n">
-        <v>101.8</v>
+        <v>101.3</v>
       </c>
       <c r="E77" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>83.2</v>
+        <v>84.2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2458,23 +2458,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>93</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>102.1</v>
+        <v>101.3</v>
       </c>
       <c r="E78" t="n">
-        <v>87.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="F78" t="n">
-        <v>84.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2485,23 +2485,23 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>93.3</v>
+        <v>92.7</v>
       </c>
       <c r="D79" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="E79" t="n">
-        <v>87.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F79" t="n">
-        <v>86.2</v>
+        <v>83.2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2512,23 +2512,23 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>94.2</v>
+        <v>93</v>
       </c>
       <c r="D80" t="n">
-        <v>100.4</v>
+        <v>102.1</v>
       </c>
       <c r="E80" t="n">
-        <v>88.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>87.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2539,23 +2539,23 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>94.5</v>
+        <v>93.3</v>
       </c>
       <c r="D81" t="n">
-        <v>100.1</v>
+        <v>101.7</v>
       </c>
       <c r="E81" t="n">
-        <v>88.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2566,23 +2566,23 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>94.7</v>
+        <v>94.2</v>
       </c>
       <c r="D82" t="n">
-        <v>101.3</v>
+        <v>100.4</v>
       </c>
       <c r="E82" t="n">
-        <v>87.3</v>
+        <v>88.8</v>
       </c>
       <c r="F82" t="n">
-        <v>85.8</v>
+        <v>87.2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2593,23 +2593,23 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D83" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="E83" t="n">
-        <v>87.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>85.3</v>
+        <v>86.3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2620,23 +2620,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>94.2</v>
+        <v>94.7</v>
       </c>
       <c r="D84" t="n">
-        <v>99.09999999999999</v>
+        <v>101.3</v>
       </c>
       <c r="E84" t="n">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="F84" t="n">
-        <v>84.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2647,23 +2647,23 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="E85" t="n">
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
       <c r="F85" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2674,23 +2674,23 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>95.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="D86" t="n">
-        <v>97.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>90.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>89.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2701,23 +2701,23 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>96.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="E87" t="n">
-        <v>90.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F87" t="n">
-        <v>92.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2728,23 +2728,23 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>96.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="E88" t="n">
-        <v>91.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F88" t="n">
-        <v>94.8</v>
+        <v>89.8</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2755,23 +2755,23 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>97.64</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>98.28</v>
+        <v>97</v>
       </c>
       <c r="E89" t="n">
-        <v>92.37</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>96.13</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2782,23 +2782,23 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>98.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>99.7</v>
+        <v>97.2</v>
       </c>
       <c r="E90" t="n">
-        <v>95</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>98.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2809,23 +2809,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>99.09999999999999</v>
+        <v>97.64</v>
       </c>
       <c r="D91" t="n">
-        <v>99.7</v>
+        <v>98.28</v>
       </c>
       <c r="E91" t="n">
-        <v>97.3</v>
+        <v>92.37</v>
       </c>
       <c r="F91" t="n">
-        <v>99.40000000000001</v>
+        <v>96.13</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2836,23 +2836,23 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="E92" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="F92" t="n">
-        <v>99</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2863,23 +2863,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="E93" t="n">
-        <v>96.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F93" t="n">
-        <v>98.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2890,23 +2890,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>97.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>98</v>
+        <v>100.1</v>
       </c>
       <c r="E94" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F94" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -2917,23 +2917,23 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>97.61</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>100.91</v>
+        <v>100.7</v>
       </c>
       <c r="E95" t="n">
-        <v>94.59</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>96.23999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -2944,23 +2944,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D96" t="n">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E96" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -2971,23 +2971,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>98.59999999999999</v>
+        <v>97.61</v>
       </c>
       <c r="D97" t="n">
-        <v>100.6</v>
+        <v>100.91</v>
       </c>
       <c r="E97" t="n">
-        <v>97.09999999999999</v>
+        <v>94.59</v>
       </c>
       <c r="F97" t="n">
-        <v>98.40000000000001</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -2998,23 +2998,23 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>99.3</v>
+        <v>97.7</v>
       </c>
       <c r="D98" t="n">
-        <v>103.7</v>
+        <v>99.5</v>
       </c>
       <c r="E98" t="n">
-        <v>98</v>
+        <v>95.8</v>
       </c>
       <c r="F98" t="n">
-        <v>98.5</v>
+        <v>96.7</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3025,23 +3025,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>106.8</v>
+        <v>100.6</v>
       </c>
       <c r="E99" t="n">
-        <v>98.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>97.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3052,23 +3052,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="D100" t="n">
-        <v>108.1</v>
+        <v>103.7</v>
       </c>
       <c r="E100" t="n">
-        <v>99.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F100" t="n">
-        <v>97.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3089,13 +3089,13 @@
         <v>99.59999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="E101" t="n">
-        <v>99.7</v>
+        <v>98.7</v>
       </c>
       <c r="F101" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3106,23 +3106,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>99.31</v>
+        <v>99.7</v>
       </c>
       <c r="D102" t="n">
-        <v>105.31</v>
+        <v>108.1</v>
       </c>
       <c r="E102" t="n">
-        <v>97.95999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>98.26000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3133,23 +3133,23 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>98.84</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>106.09</v>
+        <v>106.7</v>
       </c>
       <c r="E103" t="n">
-        <v>95.67</v>
+        <v>99.7</v>
       </c>
       <c r="F103" t="n">
-        <v>97.79000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3160,23 +3160,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>98.09999999999999</v>
+        <v>99.31</v>
       </c>
       <c r="D104" t="n">
-        <v>104.4</v>
+        <v>105.31</v>
       </c>
       <c r="E104" t="n">
-        <v>95.8</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>95.59999999999999</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3187,23 +3187,23 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>97.7</v>
+        <v>98.84</v>
       </c>
       <c r="D105" t="n">
-        <v>102.4</v>
+        <v>106.09</v>
       </c>
       <c r="E105" t="n">
-        <v>96.5</v>
+        <v>95.67</v>
       </c>
       <c r="F105" t="n">
-        <v>94.2</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3214,23 +3214,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>103.5</v>
+        <v>104.4</v>
       </c>
       <c r="E106" t="n">
-        <v>96.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F106" t="n">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3241,23 +3241,23 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="D107" t="n">
-        <v>101.56</v>
+        <v>102.4</v>
       </c>
       <c r="E107" t="n">
-        <v>97.95</v>
+        <v>96.5</v>
       </c>
       <c r="F107" t="n">
-        <v>97.33</v>
+        <v>94.2</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3268,23 +3268,23 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>98.90000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>105.1</v>
+        <v>103.5</v>
       </c>
       <c r="E108" t="n">
-        <v>98.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>98.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3295,23 +3295,23 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D109" t="n">
-        <v>103</v>
+        <v>101.56</v>
       </c>
       <c r="E109" t="n">
-        <v>97.8</v>
+        <v>97.95</v>
       </c>
       <c r="F109" t="n">
-        <v>98.3</v>
+        <v>97.33</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3322,23 +3322,23 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>101.9</v>
+        <v>105.1</v>
       </c>
       <c r="E110" t="n">
-        <v>96.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3349,23 +3349,23 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>97.98999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>99.68000000000001</v>
+        <v>103</v>
       </c>
       <c r="E111" t="n">
-        <v>95.06999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F111" t="n">
-        <v>99.45</v>
+        <v>98.3</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3376,23 +3376,23 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>97.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>96.40000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="E112" t="n">
-        <v>93</v>
+        <v>96.8</v>
       </c>
       <c r="F112" t="n">
-        <v>99.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3403,23 +3403,23 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>96.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>96.90000000000001</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>90.40000000000001</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>98.5</v>
+        <v>99.45</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3430,23 +3430,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>96.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D114" t="n">
-        <v>98.23999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>91.98</v>
+        <v>93</v>
       </c>
       <c r="F114" t="n">
-        <v>97.18000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3457,23 +3457,23 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="D115" t="n">
-        <v>95.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>94.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3484,23 +3484,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>96.90000000000001</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>95.2</v>
+        <v>91.98</v>
       </c>
       <c r="F116" t="n">
-        <v>100.3</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3511,23 +3511,23 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>98.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D117" t="n">
-        <v>100.8</v>
+        <v>95.5</v>
       </c>
       <c r="E117" t="n">
-        <v>97.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="F117" t="n">
-        <v>102.9</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3538,23 +3538,23 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>99.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D118" t="n">
-        <v>101.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>97.8</v>
+        <v>95.2</v>
       </c>
       <c r="F118" t="n">
-        <v>105.4</v>
+        <v>100.3</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3565,23 +3565,23 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>100.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="E119" t="n">
-        <v>98.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>106.4</v>
+        <v>102.9</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3592,23 +3592,23 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="E120" t="n">
-        <v>99</v>
+        <v>97.8</v>
       </c>
       <c r="F120" t="n">
-        <v>106.5</v>
+        <v>105.4</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3619,23 +3619,23 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>120</v>
       </c>
       <c r="C121" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D121" t="n">
         <v>101.3</v>
       </c>
-      <c r="D121" t="n">
-        <v>103.5</v>
-      </c>
       <c r="E121" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="F121" t="n">
-        <v>107</v>
+        <v>106.4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3646,23 +3646,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>102.3</v>
+        <v>100.6</v>
       </c>
       <c r="D122" t="n">
-        <v>104.7</v>
+        <v>101</v>
       </c>
       <c r="E122" t="n">
-        <v>100.7</v>
+        <v>99</v>
       </c>
       <c r="F122" t="n">
-        <v>108.9</v>
+        <v>106.5</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3673,23 +3673,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>103.2</v>
+        <v>101.3</v>
       </c>
       <c r="D123" t="n">
-        <v>104.3</v>
+        <v>103.5</v>
       </c>
       <c r="E123" t="n">
-        <v>104.6</v>
+        <v>99.8</v>
       </c>
       <c r="F123" t="n">
-        <v>108.5</v>
+        <v>107</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -3700,23 +3700,23 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>123</v>
       </c>
       <c r="C124" t="n">
-        <v>105.9</v>
+        <v>102.3</v>
       </c>
       <c r="D124" t="n">
-        <v>111</v>
+        <v>104.7</v>
       </c>
       <c r="E124" t="n">
-        <v>110.2</v>
+        <v>100.7</v>
       </c>
       <c r="F124" t="n">
-        <v>110.3</v>
+        <v>108.9</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3727,23 +3727,23 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>108.4</v>
+        <v>103.2</v>
       </c>
       <c r="D125" t="n">
-        <v>114.5</v>
+        <v>104.3</v>
       </c>
       <c r="E125" t="n">
-        <v>114.6</v>
+        <v>104.6</v>
       </c>
       <c r="F125" t="n">
-        <v>111.7</v>
+        <v>108.5</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3754,23 +3754,23 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>108.9</v>
+        <v>105.9</v>
       </c>
       <c r="D126" t="n">
-        <v>113.5</v>
+        <v>111</v>
       </c>
       <c r="E126" t="n">
-        <v>114.8</v>
+        <v>110.2</v>
       </c>
       <c r="F126" t="n">
-        <v>111.9</v>
+        <v>110.3</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -3781,23 +3781,23 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>126</v>
       </c>
       <c r="C127" t="n">
-        <v>109.7</v>
+        <v>108.4</v>
       </c>
       <c r="D127" t="n">
-        <v>116.8</v>
+        <v>114.5</v>
       </c>
       <c r="E127" t="n">
-        <v>113.4</v>
+        <v>114.6</v>
       </c>
       <c r="F127" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -3808,23 +3808,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>109.5</v>
+        <v>108.9</v>
       </c>
       <c r="D128" t="n">
-        <v>117.8</v>
+        <v>113.5</v>
       </c>
       <c r="E128" t="n">
-        <v>112.6</v>
+        <v>114.8</v>
       </c>
       <c r="F128" t="n">
-        <v>110.9</v>
+        <v>111.9</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -3835,23 +3835,23 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>128</v>
       </c>
       <c r="C129" t="n">
-        <v>108.8</v>
+        <v>109.7</v>
       </c>
       <c r="D129" t="n">
-        <v>115.2</v>
+        <v>116.8</v>
       </c>
       <c r="E129" t="n">
-        <v>110.8</v>
+        <v>113.4</v>
       </c>
       <c r="F129" t="n">
-        <v>109.6</v>
+        <v>111.8</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -3862,23 +3862,23 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>129</v>
       </c>
       <c r="C130" t="n">
-        <v>108.5</v>
+        <v>109.5</v>
       </c>
       <c r="D130" t="n">
-        <v>116.8</v>
+        <v>117.8</v>
       </c>
       <c r="E130" t="n">
-        <v>112.3</v>
+        <v>112.6</v>
       </c>
       <c r="F130" t="n">
-        <v>109.1</v>
+        <v>110.9</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -3889,23 +3889,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>130</v>
       </c>
       <c r="C131" t="n">
-        <v>109.3</v>
+        <v>108.8</v>
       </c>
       <c r="D131" t="n">
-        <v>120.2</v>
+        <v>115.2</v>
       </c>
       <c r="E131" t="n">
-        <v>114.5</v>
+        <v>110.8</v>
       </c>
       <c r="F131" t="n">
-        <v>108.3</v>
+        <v>109.6</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -3916,23 +3916,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>131</v>
       </c>
       <c r="C132" t="n">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="D132" t="n">
-        <v>119.5</v>
+        <v>116.8</v>
       </c>
       <c r="E132" t="n">
-        <v>115</v>
+        <v>112.3</v>
       </c>
       <c r="F132" t="n">
-        <v>106.5</v>
+        <v>109.1</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -3943,23 +3943,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>132</v>
       </c>
       <c r="C133" t="n">
-        <v>108</v>
+        <v>109.3</v>
       </c>
       <c r="D133" t="n">
-        <v>118.2</v>
+        <v>120.2</v>
       </c>
       <c r="E133" t="n">
-        <v>112.7</v>
+        <v>114.5</v>
       </c>
       <c r="F133" t="n">
-        <v>106.2</v>
+        <v>108.3</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -3970,23 +3970,23 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>133</v>
       </c>
       <c r="C134" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="D134" t="n">
-        <v>115.1</v>
+        <v>119.5</v>
       </c>
       <c r="E134" t="n">
-        <v>114.5</v>
+        <v>115</v>
       </c>
       <c r="F134" t="n">
-        <v>105.6</v>
+        <v>106.5</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -3997,23 +3997,23 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>134</v>
       </c>
       <c r="C135" t="n">
-        <v>108.6</v>
+        <v>108</v>
       </c>
       <c r="D135" t="n">
-        <v>117.9</v>
+        <v>118.2</v>
       </c>
       <c r="E135" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="F135" t="n">
-        <v>107.4</v>
+        <v>106.2</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4024,23 +4024,23 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>135</v>
       </c>
       <c r="C136" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D136" t="n">
-        <v>115.6</v>
+        <v>115.1</v>
       </c>
       <c r="E136" t="n">
-        <v>110.8</v>
+        <v>114.5</v>
       </c>
       <c r="F136" t="n">
-        <v>107.3</v>
+        <v>105.6</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4051,23 +4051,23 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>136</v>
       </c>
       <c r="C137" t="n">
-        <v>106.1</v>
+        <v>108.6</v>
       </c>
       <c r="D137" t="n">
-        <v>112</v>
+        <v>117.9</v>
       </c>
       <c r="E137" t="n">
-        <v>111.4</v>
+        <v>112.8</v>
       </c>
       <c r="F137" t="n">
-        <v>106.4</v>
+        <v>107.4</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4078,23 +4078,23 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>137</v>
       </c>
       <c r="C138" t="n">
-        <v>106</v>
+        <v>107.8</v>
       </c>
       <c r="D138" t="n">
-        <v>113.9</v>
+        <v>115.6</v>
       </c>
       <c r="E138" t="n">
-        <v>111.2</v>
+        <v>110.8</v>
       </c>
       <c r="F138" t="n">
-        <v>108</v>
+        <v>107.3</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4105,23 +4105,23 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>138</v>
       </c>
       <c r="C139" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="D139" t="n">
-        <v>112.6</v>
+        <v>112</v>
       </c>
       <c r="E139" t="n">
-        <v>113.5</v>
+        <v>111.4</v>
       </c>
       <c r="F139" t="n">
-        <v>108.4</v>
+        <v>106.4</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4132,23 +4132,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>139</v>
       </c>
       <c r="C140" t="n">
-        <v>106.6</v>
+        <v>106</v>
       </c>
       <c r="D140" t="n">
-        <v>112.5</v>
+        <v>113.9</v>
       </c>
       <c r="E140" t="n">
-        <v>115.5</v>
+        <v>111.2</v>
       </c>
       <c r="F140" t="n">
-        <v>113.5</v>
+        <v>108</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4159,23 +4159,23 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>140</v>
       </c>
       <c r="C141" t="n">
-        <v>107.1</v>
+        <v>105.9</v>
       </c>
       <c r="D141" t="n">
-        <v>112</v>
+        <v>112.6</v>
       </c>
       <c r="E141" t="n">
-        <v>116.8</v>
+        <v>113.5</v>
       </c>
       <c r="F141" t="n">
-        <v>117.3</v>
+        <v>108.4</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4196,13 +4196,13 @@
         <v>106.6</v>
       </c>
       <c r="D142" t="n">
-        <v>110</v>
+        <v>112.5</v>
       </c>
       <c r="E142" t="n">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="F142" t="n">
-        <v>117.6</v>
+        <v>113.5</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4213,23 +4213,23 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>142</v>
       </c>
       <c r="C143" t="n">
-        <v>105.6</v>
+        <v>107.1</v>
       </c>
       <c r="D143" t="n">
-        <v>108.3</v>
+        <v>112</v>
       </c>
       <c r="E143" t="n">
-        <v>115.4</v>
+        <v>116.8</v>
       </c>
       <c r="F143" t="n">
-        <v>117.7</v>
+        <v>117.3</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4240,23 +4240,23 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>143</v>
       </c>
       <c r="C144" t="n">
-        <v>105.7</v>
+        <v>106.6</v>
       </c>
       <c r="D144" t="n">
-        <v>111.1</v>
+        <v>110</v>
       </c>
       <c r="E144" t="n">
-        <v>113.4</v>
+        <v>115.6</v>
       </c>
       <c r="F144" t="n">
-        <v>119.2</v>
+        <v>117.6</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4267,23 +4267,23 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>144</v>
       </c>
       <c r="C145" t="n">
-        <v>104.5</v>
+        <v>105.6</v>
       </c>
       <c r="D145" t="n">
-        <v>107.9</v>
+        <v>108.3</v>
       </c>
       <c r="E145" t="n">
-        <v>114.9</v>
+        <v>115.4</v>
       </c>
       <c r="F145" t="n">
-        <v>115.8</v>
+        <v>117.7</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4294,23 +4294,23 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>145</v>
       </c>
       <c r="C146" t="n">
-        <v>103.4</v>
+        <v>105.7</v>
       </c>
       <c r="D146" t="n">
-        <v>107.7</v>
+        <v>111.1</v>
       </c>
       <c r="E146" t="n">
-        <v>113.8</v>
+        <v>113.4</v>
       </c>
       <c r="F146" t="n">
-        <v>109.4</v>
+        <v>119.2</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4321,23 +4321,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>146</v>
       </c>
       <c r="C147" t="n">
-        <v>100.39</v>
+        <v>104.5</v>
       </c>
       <c r="D147" t="n">
-        <v>104.7</v>
+        <v>107.9</v>
       </c>
       <c r="E147" t="n">
-        <v>108.12</v>
+        <v>114.9</v>
       </c>
       <c r="F147" t="n">
-        <v>97.48999999999999</v>
+        <v>115.8</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4348,23 +4348,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>147</v>
       </c>
       <c r="C148" t="n">
-        <v>96.34</v>
+        <v>103.4</v>
       </c>
       <c r="D148" t="n">
-        <v>100.34</v>
+        <v>107.7</v>
       </c>
       <c r="E148" t="n">
-        <v>97.40000000000001</v>
+        <v>113.8</v>
       </c>
       <c r="F148" t="n">
-        <v>90.13</v>
+        <v>109.4</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4375,658 +4375,658 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>148</v>
       </c>
       <c r="C149" t="n">
-        <v>94.06999999999999</v>
+        <v>100.39</v>
       </c>
       <c r="D149" t="n">
-        <v>99.97</v>
+        <v>104.7</v>
       </c>
       <c r="E149" t="n">
-        <v>89.19</v>
+        <v>108.12</v>
       </c>
       <c r="F149" t="n">
-        <v>87.15000000000001</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>149</v>
       </c>
       <c r="C150" t="n">
-        <v>92.84999999999999</v>
+        <v>96.34</v>
       </c>
       <c r="D150" t="n">
-        <v>97.28</v>
+        <v>100.34</v>
       </c>
       <c r="E150" t="n">
-        <v>87.34</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>83.92</v>
+        <v>90.13</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>150</v>
       </c>
       <c r="C151" t="n">
-        <v>91.98999999999999</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>96.31999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="E151" t="n">
-        <v>84.18000000000001</v>
+        <v>89.19</v>
       </c>
       <c r="F151" t="n">
-        <v>84.97</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>93.15</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>151</v>
       </c>
       <c r="C152" t="n">
-        <v>91.95999999999999</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>95.45999999999999</v>
+        <v>97.28</v>
       </c>
       <c r="E152" t="n">
-        <v>85.20999999999999</v>
+        <v>87.34</v>
       </c>
       <c r="F152" t="n">
-        <v>85.67</v>
+        <v>83.92</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>92.71</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>152</v>
       </c>
       <c r="C153" t="n">
-        <v>92.38</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>95.77</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>85.12</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>87.08</v>
+        <v>84.97</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>91.69</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>153</v>
       </c>
       <c r="C154" t="n">
-        <v>92.89</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>96.11</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>86</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>87.38</v>
+        <v>85.67</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>91.79</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>154</v>
       </c>
       <c r="C155" t="n">
-        <v>93.40000000000001</v>
+        <v>92.38</v>
       </c>
       <c r="D155" t="n">
-        <v>96.51000000000001</v>
+        <v>95.77</v>
       </c>
       <c r="E155" t="n">
-        <v>84.95999999999999</v>
+        <v>85.12</v>
       </c>
       <c r="F155" t="n">
-        <v>88.14</v>
+        <v>87.08</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.13</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>155</v>
       </c>
       <c r="C156" t="n">
-        <v>94</v>
+        <v>92.89</v>
       </c>
       <c r="D156" t="n">
-        <v>94.40000000000001</v>
+        <v>96.11</v>
       </c>
       <c r="E156" t="n">
-        <v>87.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="F156" t="n">
-        <v>88.3</v>
+        <v>87.38</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>92.72</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>156</v>
       </c>
       <c r="C157" t="n">
-        <v>95.83</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>97.98</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>88.04000000000001</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="F157" t="n">
-        <v>90.58</v>
+        <v>88.14</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>95.99</t>
+          <t>93.35</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>157</v>
       </c>
       <c r="C158" t="n">
-        <v>96.92</v>
+        <v>94</v>
       </c>
       <c r="D158" t="n">
-        <v>98.55</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>89.19</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>96.2</v>
+        <v>88.3</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>94.80</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>158</v>
       </c>
       <c r="C159" t="n">
-        <v>99.59</v>
+        <v>95.83</v>
       </c>
       <c r="D159" t="n">
-        <v>100.19</v>
+        <v>97.98</v>
       </c>
       <c r="E159" t="n">
-        <v>93.62</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>107.79</v>
+        <v>90.58</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>95.99</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>159</v>
       </c>
       <c r="C160" t="n">
-        <v>104.03</v>
+        <v>96.92</v>
       </c>
       <c r="D160" t="n">
-        <v>104.26</v>
+        <v>98.55</v>
       </c>
       <c r="E160" t="n">
-        <v>103.8</v>
+        <v>89.19</v>
       </c>
       <c r="F160" t="n">
-        <v>119.13</v>
+        <v>96.2</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>102.22</t>
+          <t>96.68</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>160</v>
       </c>
       <c r="C161" t="n">
-        <v>107</v>
+        <v>99.59</v>
       </c>
       <c r="D161" t="n">
-        <v>104.95</v>
+        <v>100.19</v>
       </c>
       <c r="E161" t="n">
-        <v>112.31</v>
+        <v>93.62</v>
       </c>
       <c r="F161" t="n">
-        <v>124.18</v>
+        <v>107.79</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>105.55</t>
+          <t>98.57</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>161</v>
       </c>
       <c r="C162" t="n">
-        <v>108.15</v>
+        <v>104.03</v>
       </c>
       <c r="D162" t="n">
-        <v>104.71</v>
+        <v>104.26</v>
       </c>
       <c r="E162" t="n">
-        <v>115.5</v>
+        <v>103.8</v>
       </c>
       <c r="F162" t="n">
-        <v>126.78</v>
+        <v>119.13</v>
       </c>
       <c r="G162" t="n">
-        <v>107.02</v>
+        <v>102.22</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>162</v>
       </c>
       <c r="C163" t="n">
-        <v>109.4</v>
+        <v>107</v>
       </c>
       <c r="D163" t="n">
-        <v>106.8</v>
+        <v>104.95</v>
       </c>
       <c r="E163" t="n">
-        <v>118.3</v>
+        <v>112.31</v>
       </c>
       <c r="F163" t="n">
-        <v>126.7</v>
+        <v>124.18</v>
       </c>
       <c r="G163" t="n">
-        <v>108</v>
+        <v>105.55</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>163</v>
       </c>
       <c r="C164" t="n">
-        <v>109.5</v>
+        <v>108.15</v>
       </c>
       <c r="D164" t="n">
-        <v>109.1</v>
+        <v>104.71</v>
       </c>
       <c r="E164" t="n">
-        <v>116.7</v>
+        <v>115.5</v>
       </c>
       <c r="F164" t="n">
-        <v>121.2</v>
+        <v>126.78</v>
       </c>
       <c r="G164" t="n">
-        <v>108</v>
+        <v>107.02</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>164</v>
       </c>
       <c r="C165" t="n">
-        <v>109.63</v>
+        <v>109.4</v>
       </c>
       <c r="D165" t="n">
-        <v>111.56</v>
+        <v>106.8</v>
       </c>
       <c r="E165" t="n">
-        <v>117.55</v>
+        <v>118.3</v>
       </c>
       <c r="F165" t="n">
-        <v>116.91</v>
+        <v>126.7</v>
       </c>
       <c r="G165" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>165</v>
       </c>
       <c r="C166" t="n">
-        <v>110.3</v>
+        <v>109.5</v>
       </c>
       <c r="D166" t="n">
-        <v>113.86</v>
+        <v>109.1</v>
       </c>
       <c r="E166" t="n">
-        <v>122.12</v>
+        <v>116.7</v>
       </c>
       <c r="F166" t="n">
-        <v>117.18</v>
+        <v>121.2</v>
       </c>
       <c r="G166" t="n">
-        <v>108.01</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>166</v>
       </c>
       <c r="C167" t="n">
-        <v>110.2</v>
+        <v>109.63</v>
       </c>
       <c r="D167" t="n">
-        <v>114.1</v>
+        <v>111.56</v>
       </c>
       <c r="E167" t="n">
-        <v>123.53</v>
+        <v>117.55</v>
       </c>
       <c r="F167" t="n">
-        <v>115.34</v>
+        <v>116.91</v>
       </c>
       <c r="G167" t="n">
-        <v>107.87</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>167</v>
       </c>
       <c r="C168" t="n">
-        <v>109.2</v>
+        <v>110.3</v>
       </c>
       <c r="D168" t="n">
-        <v>113.37</v>
+        <v>113.86</v>
       </c>
       <c r="E168" t="n">
-        <v>120.73</v>
+        <v>122.12</v>
       </c>
       <c r="F168" t="n">
-        <v>114.14</v>
+        <v>117.18</v>
       </c>
       <c r="G168" t="n">
-        <v>106.88</v>
+        <v>108.01</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>168</v>
       </c>
       <c r="C169" t="n">
-        <v>108.36</v>
+        <v>110.2</v>
       </c>
       <c r="D169" t="n">
-        <v>112.79</v>
+        <v>114.1</v>
       </c>
       <c r="E169" t="n">
-        <v>119.58</v>
+        <v>123.53</v>
       </c>
       <c r="F169" t="n">
-        <v>112.46</v>
+        <v>115.34</v>
       </c>
       <c r="G169" t="n">
-        <v>106.09</v>
+        <v>107.87</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>169</v>
       </c>
       <c r="C170" t="n">
-        <v>107.6</v>
+        <v>109.2</v>
       </c>
       <c r="D170" t="n">
-        <v>111.3</v>
+        <v>113.37</v>
       </c>
       <c r="E170" t="n">
-        <v>117.3</v>
+        <v>120.73</v>
       </c>
       <c r="F170" t="n">
-        <v>111.9</v>
+        <v>114.14</v>
       </c>
       <c r="G170" t="n">
-        <v>105.6</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>170</v>
       </c>
       <c r="C171" t="n">
-        <v>107.4</v>
+        <v>108.36</v>
       </c>
       <c r="D171" t="n">
-        <v>114.1</v>
+        <v>112.79</v>
       </c>
       <c r="E171" t="n">
-        <v>116.5</v>
+        <v>119.58</v>
       </c>
       <c r="F171" t="n">
-        <v>109</v>
+        <v>112.46</v>
       </c>
       <c r="G171" t="n">
-        <v>104.8</v>
+        <v>106.09</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>171</v>
       </c>
       <c r="C172" t="n">
-        <v>106.5</v>
+        <v>107.6</v>
       </c>
       <c r="D172" t="n">
-        <v>113.1</v>
+        <v>111.3</v>
       </c>
       <c r="E172" t="n">
-        <v>115.9</v>
+        <v>117.3</v>
       </c>
       <c r="F172" t="n">
-        <v>103.3</v>
+        <v>111.9</v>
       </c>
       <c r="G172" t="n">
-        <v>104.4</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>172</v>
       </c>
       <c r="C173" t="n">
-        <v>106.2</v>
+        <v>107.4</v>
       </c>
       <c r="D173" t="n">
-        <v>113.6</v>
+        <v>114.1</v>
       </c>
       <c r="E173" t="n">
-        <v>115.4</v>
+        <v>116.5</v>
       </c>
       <c r="F173" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G173" t="n">
-        <v>104.2</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5036,113 +5036,113 @@
         <v>106.5</v>
       </c>
       <c r="D174" t="n">
-        <v>115.7</v>
+        <v>113.1</v>
       </c>
       <c r="E174" t="n">
-        <v>115</v>
+        <v>115.9</v>
       </c>
       <c r="F174" t="n">
-        <v>101</v>
+        <v>103.3</v>
       </c>
       <c r="G174" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>174</v>
       </c>
       <c r="C175" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D175" t="n">
-        <v>115.1</v>
+        <v>113.6</v>
       </c>
       <c r="E175" t="n">
-        <v>115</v>
+        <v>115.4</v>
       </c>
       <c r="F175" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="G175" t="n">
-        <v>103.6</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>175</v>
       </c>
       <c r="C176" t="n">
-        <v>105.4</v>
+        <v>106.5</v>
       </c>
       <c r="D176" t="n">
-        <v>112.7</v>
+        <v>115.7</v>
       </c>
       <c r="E176" t="n">
-        <v>115.4</v>
+        <v>115</v>
       </c>
       <c r="F176" t="n">
-        <v>102.4</v>
+        <v>101</v>
       </c>
       <c r="G176" t="n">
-        <v>103.1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>176</v>
       </c>
       <c r="C177" t="n">
-        <v>105.1</v>
+        <v>106.1</v>
       </c>
       <c r="D177" t="n">
-        <v>111.3</v>
+        <v>115.1</v>
       </c>
       <c r="E177" t="n">
-        <v>115.3</v>
+        <v>115</v>
       </c>
       <c r="F177" t="n">
-        <v>103.3</v>
+        <v>100.8</v>
       </c>
       <c r="G177" t="n">
-        <v>103</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>177</v>
       </c>
       <c r="C178" t="n">
-        <v>104.6</v>
+        <v>105.4</v>
       </c>
       <c r="D178" t="n">
-        <v>109.1</v>
+        <v>112.7</v>
       </c>
       <c r="E178" t="n">
-        <v>112.6</v>
+        <v>115.4</v>
       </c>
       <c r="F178" t="n">
-        <v>103.3</v>
+        <v>102.4</v>
       </c>
       <c r="G178" t="n">
         <v>103.1</v>
@@ -5151,23 +5151,23 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>178</v>
       </c>
       <c r="C179" t="n">
-        <v>104.2</v>
+        <v>105.1</v>
       </c>
       <c r="D179" t="n">
-        <v>107.8</v>
+        <v>111.3</v>
       </c>
       <c r="E179" t="n">
-        <v>110.9</v>
+        <v>115.3</v>
       </c>
       <c r="F179" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="G179" t="n">
         <v>103</v>
@@ -5176,48 +5176,48 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>179</v>
       </c>
       <c r="C180" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D180" t="n">
-        <v>108.6</v>
+        <v>109.1</v>
       </c>
       <c r="E180" t="n">
-        <v>111.1</v>
+        <v>112.6</v>
       </c>
       <c r="F180" t="n">
-        <v>104.2</v>
+        <v>103.3</v>
       </c>
       <c r="G180" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>180</v>
       </c>
       <c r="C181" t="n">
-        <v>104.6</v>
+        <v>104.2</v>
       </c>
       <c r="D181" t="n">
         <v>107.8</v>
       </c>
       <c r="E181" t="n">
-        <v>114.6</v>
+        <v>110.9</v>
       </c>
       <c r="F181" t="n">
-        <v>107</v>
+        <v>103.2</v>
       </c>
       <c r="G181" t="n">
         <v>103</v>
@@ -5226,23 +5226,23 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>181</v>
       </c>
       <c r="C182" t="n">
-        <v>105.1</v>
+        <v>104.5</v>
       </c>
       <c r="D182" t="n">
-        <v>110.3</v>
+        <v>108.6</v>
       </c>
       <c r="E182" t="n">
-        <v>115.2</v>
+        <v>111.1</v>
       </c>
       <c r="F182" t="n">
-        <v>106.1</v>
+        <v>104.2</v>
       </c>
       <c r="G182" t="n">
         <v>103</v>
@@ -5251,2375 +5251,2425 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2006-11</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>182</v>
       </c>
       <c r="C183" t="n">
-        <v>104.1</v>
+        <v>104.6</v>
       </c>
       <c r="D183" t="n">
-        <v>107.2</v>
+        <v>107.8</v>
       </c>
       <c r="E183" t="n">
-        <v>117.4</v>
+        <v>114.6</v>
       </c>
       <c r="F183" t="n">
-        <v>105.4</v>
+        <v>107</v>
       </c>
       <c r="G183" t="n">
-        <v>102.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2006-10</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>183</v>
       </c>
       <c r="C184" t="n">
-        <v>103.8</v>
+        <v>105.1</v>
       </c>
       <c r="D184" t="n">
-        <v>106.3</v>
+        <v>110.3</v>
       </c>
       <c r="E184" t="n">
-        <v>116</v>
+        <v>115.2</v>
       </c>
       <c r="F184" t="n">
-        <v>107</v>
+        <v>106.1</v>
       </c>
       <c r="G184" t="n">
-        <v>102.3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2006-09</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>184</v>
       </c>
       <c r="C185" t="n">
-        <v>103.6</v>
+        <v>104.1</v>
       </c>
       <c r="D185" t="n">
-        <v>105.6</v>
+        <v>107.2</v>
       </c>
       <c r="E185" t="n">
-        <v>113.6</v>
+        <v>117.4</v>
       </c>
       <c r="F185" t="n">
-        <v>109.8</v>
+        <v>105.4</v>
       </c>
       <c r="G185" t="n">
-        <v>101.9</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2006-08</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>185</v>
       </c>
       <c r="C186" t="n">
-        <v>102.9</v>
+        <v>103.8</v>
       </c>
       <c r="D186" t="n">
-        <v>104.2</v>
+        <v>106.3</v>
       </c>
       <c r="E186" t="n">
-        <v>112.8</v>
+        <v>116</v>
       </c>
       <c r="F186" t="n">
-        <v>110.3</v>
+        <v>107</v>
       </c>
       <c r="G186" t="n">
-        <v>101.4</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>186</v>
       </c>
       <c r="C187" t="n">
-        <v>102.5</v>
+        <v>103.6</v>
       </c>
       <c r="D187" t="n">
-        <v>103</v>
+        <v>105.6</v>
       </c>
       <c r="E187" t="n">
-        <v>112.1</v>
+        <v>113.6</v>
       </c>
       <c r="F187" t="n">
-        <v>110.4</v>
+        <v>109.8</v>
       </c>
       <c r="G187" t="n">
-        <v>101.1</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2006-06</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>187</v>
       </c>
       <c r="C188" t="n">
-        <v>102.3</v>
+        <v>102.9</v>
       </c>
       <c r="D188" t="n">
-        <v>102.7</v>
+        <v>104.2</v>
       </c>
       <c r="E188" t="n">
-        <v>110.6</v>
+        <v>112.8</v>
       </c>
       <c r="F188" t="n">
-        <v>110.1</v>
+        <v>110.3</v>
       </c>
       <c r="G188" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2006-05</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>188</v>
       </c>
       <c r="C189" t="n">
-        <v>101.5</v>
+        <v>102.5</v>
       </c>
       <c r="D189" t="n">
-        <v>100.8</v>
+        <v>103</v>
       </c>
       <c r="E189" t="n">
-        <v>108.87</v>
+        <v>112.1</v>
       </c>
       <c r="F189" t="n">
-        <v>110.68</v>
+        <v>110.4</v>
       </c>
       <c r="G189" t="n">
-        <v>100.48</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2006-04</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>189</v>
       </c>
       <c r="C190" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="D190" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="E190" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="G190" t="n">
         <v>101</v>
-      </c>
-      <c r="D190" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="E190" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="F190" t="n">
-        <v>111.8</v>
-      </c>
-      <c r="G190" t="n">
-        <v>99.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2006-03</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>190</v>
       </c>
       <c r="C191" t="n">
-        <v>100.77</v>
+        <v>101.5</v>
       </c>
       <c r="D191" t="n">
-        <v>101.02</v>
+        <v>100.8</v>
       </c>
       <c r="E191" t="n">
-        <v>107.94</v>
+        <v>108.87</v>
       </c>
       <c r="F191" t="n">
-        <v>114.64</v>
+        <v>110.68</v>
       </c>
       <c r="G191" t="n">
-        <v>98.93000000000001</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2006-02</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>191</v>
       </c>
       <c r="C192" t="n">
-        <v>100.71</v>
+        <v>101</v>
       </c>
       <c r="D192" t="n">
-        <v>99.98999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="E192" t="n">
-        <v>108.97</v>
+        <v>107.6</v>
       </c>
       <c r="F192" t="n">
-        <v>114.85</v>
+        <v>111.8</v>
       </c>
       <c r="G192" t="n">
-        <v>99.14</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2006-01</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>192</v>
       </c>
       <c r="C193" t="n">
-        <v>101.11</v>
+        <v>100.77</v>
       </c>
       <c r="D193" t="n">
-        <v>101.28</v>
+        <v>101.02</v>
       </c>
       <c r="E193" t="n">
-        <v>105.56</v>
+        <v>107.94</v>
       </c>
       <c r="F193" t="n">
-        <v>116.04</v>
+        <v>114.64</v>
       </c>
       <c r="G193" t="n">
-        <v>99.23</v>
+        <v>98.93000000000001</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2005-12</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>193</v>
       </c>
       <c r="C194" t="n">
-        <v>100.76</v>
+        <v>100.71</v>
       </c>
       <c r="D194" t="n">
-        <v>100.01</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>105.63</v>
+        <v>108.97</v>
       </c>
       <c r="F194" t="n">
-        <v>115.67</v>
+        <v>114.85</v>
       </c>
       <c r="G194" t="n">
-        <v>99.19</v>
+        <v>99.14</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2005-11</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>194</v>
       </c>
       <c r="C195" t="n">
-        <v>100.71</v>
+        <v>101.11</v>
       </c>
       <c r="D195" t="n">
-        <v>99.06</v>
+        <v>101.28</v>
       </c>
       <c r="E195" t="n">
-        <v>104.86</v>
+        <v>105.56</v>
       </c>
       <c r="F195" t="n">
-        <v>118.05</v>
+        <v>116.04</v>
       </c>
       <c r="G195" t="n">
-        <v>99.2</v>
+        <v>99.23</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2005-10</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>195</v>
       </c>
       <c r="C196" t="n">
-        <v>100.93</v>
+        <v>100.76</v>
       </c>
       <c r="D196" t="n">
-        <v>98.31999999999999</v>
+        <v>100.01</v>
       </c>
       <c r="E196" t="n">
-        <v>106.42</v>
+        <v>105.63</v>
       </c>
       <c r="F196" t="n">
-        <v>120.77</v>
+        <v>115.67</v>
       </c>
       <c r="G196" t="n">
-        <v>99.44</v>
+        <v>99.19</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2005-09</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>196</v>
       </c>
       <c r="C197" t="n">
-        <v>101.43</v>
+        <v>100.71</v>
       </c>
       <c r="D197" t="n">
-        <v>98.83</v>
+        <v>99.06</v>
       </c>
       <c r="E197" t="n">
-        <v>109.18</v>
+        <v>104.86</v>
       </c>
       <c r="F197" t="n">
-        <v>121.32</v>
+        <v>118.05</v>
       </c>
       <c r="G197" t="n">
-        <v>99.88</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2005-08</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>197</v>
       </c>
       <c r="C198" t="n">
-        <v>102.13</v>
+        <v>100.93</v>
       </c>
       <c r="D198" t="n">
-        <v>99.59</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>110.84</v>
+        <v>106.42</v>
       </c>
       <c r="F198" t="n">
-        <v>123.23</v>
+        <v>120.77</v>
       </c>
       <c r="G198" t="n">
-        <v>100.42</v>
+        <v>99.44</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2005-07</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>198</v>
       </c>
       <c r="C199" t="n">
-        <v>102.72</v>
+        <v>101.43</v>
       </c>
       <c r="D199" t="n">
-        <v>100.23</v>
+        <v>98.83</v>
       </c>
       <c r="E199" t="n">
-        <v>110.98</v>
+        <v>109.18</v>
       </c>
       <c r="F199" t="n">
-        <v>123.57</v>
+        <v>121.32</v>
       </c>
       <c r="G199" t="n">
-        <v>101.03</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>199</v>
       </c>
       <c r="C200" t="n">
-        <v>103.01</v>
+        <v>102.13</v>
       </c>
       <c r="D200" t="n">
-        <v>100.3</v>
+        <v>99.59</v>
       </c>
       <c r="E200" t="n">
-        <v>111.59</v>
+        <v>110.84</v>
       </c>
       <c r="F200" t="n">
-        <v>122.82</v>
+        <v>123.23</v>
       </c>
       <c r="G200" t="n">
-        <v>101.49</v>
+        <v>100.42</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2005-05</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>200</v>
       </c>
       <c r="C201" t="n">
-        <v>103.16</v>
+        <v>102.72</v>
       </c>
       <c r="D201" t="n">
-        <v>100.88</v>
+        <v>100.23</v>
       </c>
       <c r="E201" t="n">
-        <v>110.27</v>
+        <v>110.98</v>
       </c>
       <c r="F201" t="n">
-        <v>122.53</v>
+        <v>123.57</v>
       </c>
       <c r="G201" t="n">
-        <v>101.57</v>
+        <v>101.03</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2005-04</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>201</v>
       </c>
       <c r="C202" t="n">
-        <v>102.81</v>
+        <v>103.01</v>
       </c>
       <c r="D202" t="n">
-        <v>101.45</v>
+        <v>100.3</v>
       </c>
       <c r="E202" t="n">
-        <v>109.44</v>
+        <v>111.59</v>
       </c>
       <c r="F202" t="n">
-        <v>120.57</v>
+        <v>122.82</v>
       </c>
       <c r="G202" t="n">
-        <v>101.07</v>
+        <v>101.49</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2005-03</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>202</v>
       </c>
       <c r="C203" t="n">
-        <v>103.48</v>
+        <v>103.16</v>
       </c>
       <c r="D203" t="n">
-        <v>103.68</v>
+        <v>100.88</v>
       </c>
       <c r="E203" t="n">
-        <v>110.28</v>
+        <v>110.27</v>
       </c>
       <c r="F203" t="n">
-        <v>119.47</v>
+        <v>122.53</v>
       </c>
       <c r="G203" t="n">
-        <v>101.4</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2005-02</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>203</v>
       </c>
       <c r="C204" t="n">
-        <v>104.82</v>
+        <v>102.81</v>
       </c>
       <c r="D204" t="n">
-        <v>107.92</v>
+        <v>101.45</v>
       </c>
       <c r="E204" t="n">
-        <v>111.23</v>
+        <v>109.44</v>
       </c>
       <c r="F204" t="n">
-        <v>118.83</v>
+        <v>120.57</v>
       </c>
       <c r="G204" t="n">
-        <v>101.99</v>
+        <v>101.07</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2005-01</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>204</v>
       </c>
       <c r="C205" t="n">
-        <v>104.67</v>
+        <v>103.48</v>
       </c>
       <c r="D205" t="n">
-        <v>106.22</v>
+        <v>103.68</v>
       </c>
       <c r="E205" t="n">
-        <v>115.83</v>
+        <v>110.28</v>
       </c>
       <c r="F205" t="n">
-        <v>115.83</v>
+        <v>119.47</v>
       </c>
       <c r="G205" t="n">
-        <v>102.54</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2004-12</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>205</v>
       </c>
       <c r="C206" t="n">
-        <v>105.33</v>
+        <v>104.82</v>
       </c>
       <c r="D206" t="n">
-        <v>106.24</v>
+        <v>107.92</v>
       </c>
       <c r="E206" t="n">
-        <v>114.49</v>
+        <v>111.23</v>
       </c>
       <c r="F206" t="n">
-        <v>117.97</v>
+        <v>118.83</v>
       </c>
       <c r="G206" t="n">
-        <v>103.3</v>
+        <v>101.99</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2004-11</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>206</v>
       </c>
       <c r="C207" t="n">
-        <v>106.33</v>
+        <v>104.67</v>
       </c>
       <c r="D207" t="n">
-        <v>107.53</v>
+        <v>106.22</v>
       </c>
       <c r="E207" t="n">
-        <v>114.66</v>
+        <v>115.83</v>
       </c>
       <c r="F207" t="n">
-        <v>119.75</v>
+        <v>115.83</v>
       </c>
       <c r="G207" t="n">
-        <v>104.12</v>
+        <v>102.54</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2004-10</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>207</v>
       </c>
       <c r="C208" t="n">
-        <v>108.17</v>
+        <v>105.33</v>
       </c>
       <c r="D208" t="n">
-        <v>111.48</v>
+        <v>106.24</v>
       </c>
       <c r="E208" t="n">
-        <v>117.08</v>
+        <v>114.49</v>
       </c>
       <c r="F208" t="n">
-        <v>118.38</v>
+        <v>117.97</v>
       </c>
       <c r="G208" t="n">
-        <v>105.61</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2004-09</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>208</v>
       </c>
       <c r="C209" t="n">
-        <v>109.62</v>
+        <v>106.33</v>
       </c>
       <c r="D209" t="n">
-        <v>114.98</v>
+        <v>107.53</v>
       </c>
       <c r="E209" t="n">
-        <v>117.44</v>
+        <v>114.66</v>
       </c>
       <c r="F209" t="n">
-        <v>117.27</v>
+        <v>119.75</v>
       </c>
       <c r="G209" t="n">
-        <v>106.72</v>
+        <v>104.12</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2004-08</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>209</v>
       </c>
       <c r="C210" t="n">
-        <v>109.48</v>
+        <v>108.17</v>
       </c>
       <c r="D210" t="n">
-        <v>116.13</v>
+        <v>111.48</v>
       </c>
       <c r="E210" t="n">
-        <v>115.86</v>
+        <v>117.08</v>
       </c>
       <c r="F210" t="n">
-        <v>115.13</v>
+        <v>118.38</v>
       </c>
       <c r="G210" t="n">
-        <v>106.42</v>
+        <v>105.61</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2004-07</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>210</v>
       </c>
       <c r="C211" t="n">
-        <v>109.35</v>
+        <v>109.62</v>
       </c>
       <c r="D211" t="n">
-        <v>116.88</v>
+        <v>114.98</v>
       </c>
       <c r="E211" t="n">
-        <v>115</v>
+        <v>117.44</v>
       </c>
       <c r="F211" t="n">
-        <v>113.83</v>
+        <v>117.27</v>
       </c>
       <c r="G211" t="n">
-        <v>106.16</v>
+        <v>106.72</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2004-06</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>211</v>
       </c>
       <c r="C212" t="n">
-        <v>109.28</v>
+        <v>109.48</v>
       </c>
       <c r="D212" t="n">
-        <v>117.37</v>
+        <v>116.13</v>
       </c>
       <c r="E212" t="n">
-        <v>114.5</v>
+        <v>115.86</v>
       </c>
       <c r="F212" t="n">
-        <v>113.02</v>
+        <v>115.13</v>
       </c>
       <c r="G212" t="n">
-        <v>106.01</v>
+        <v>106.42</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>212</v>
       </c>
       <c r="C213" t="n">
-        <v>109.44</v>
+        <v>109.35</v>
       </c>
       <c r="D213" t="n">
-        <v>118.35</v>
+        <v>116.88</v>
       </c>
       <c r="E213" t="n">
-        <v>116.57</v>
+        <v>115</v>
       </c>
       <c r="F213" t="n">
-        <v>110.22</v>
+        <v>113.83</v>
       </c>
       <c r="G213" t="n">
-        <v>106.22</v>
+        <v>106.16</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2004-04</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>213</v>
       </c>
       <c r="C214" t="n">
-        <v>109.26</v>
+        <v>109.28</v>
       </c>
       <c r="D214" t="n">
-        <v>117</v>
+        <v>117.37</v>
       </c>
       <c r="E214" t="n">
-        <v>116.83</v>
+        <v>114.5</v>
       </c>
       <c r="F214" t="n">
-        <v>107.04</v>
+        <v>113.02</v>
       </c>
       <c r="G214" t="n">
-        <v>106.78</v>
+        <v>106.01</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2004-03</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>214</v>
       </c>
       <c r="C215" t="n">
-        <v>108.34</v>
+        <v>109.44</v>
       </c>
       <c r="D215" t="n">
-        <v>114.42</v>
+        <v>118.35</v>
       </c>
       <c r="E215" t="n">
-        <v>115.33</v>
+        <v>116.57</v>
       </c>
       <c r="F215" t="n">
-        <v>104.53</v>
+        <v>110.22</v>
       </c>
       <c r="G215" t="n">
-        <v>106.59</v>
+        <v>106.22</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2004-02</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>215</v>
       </c>
       <c r="C216" t="n">
-        <v>107.01</v>
+        <v>109.26</v>
       </c>
       <c r="D216" t="n">
-        <v>111.11</v>
+        <v>117</v>
       </c>
       <c r="E216" t="n">
-        <v>113.52</v>
+        <v>116.83</v>
       </c>
       <c r="F216" t="n">
-        <v>104.26</v>
+        <v>107.04</v>
       </c>
       <c r="G216" t="n">
-        <v>105.78</v>
+        <v>106.78</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2004-01</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>216</v>
       </c>
       <c r="C217" t="n">
-        <v>106.76</v>
+        <v>108.34</v>
       </c>
       <c r="D217" t="n">
-        <v>110.49</v>
+        <v>114.42</v>
       </c>
       <c r="E217" t="n">
-        <v>109.04</v>
+        <v>115.33</v>
       </c>
       <c r="F217" t="n">
-        <v>106.36</v>
+        <v>104.53</v>
       </c>
       <c r="G217" t="n">
-        <v>105.45</v>
+        <v>106.59</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2003-12</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>217</v>
       </c>
       <c r="C218" t="n">
-        <v>106.31</v>
+        <v>107.01</v>
       </c>
       <c r="D218" t="n">
-        <v>110.54</v>
+        <v>111.11</v>
       </c>
       <c r="E218" t="n">
-        <v>109.33</v>
+        <v>113.52</v>
       </c>
       <c r="F218" t="n">
-        <v>106.67</v>
+        <v>104.26</v>
       </c>
       <c r="G218" t="n">
-        <v>104.73</v>
+        <v>105.78</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2003-11</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>218</v>
       </c>
       <c r="C219" t="n">
-        <v>105.47</v>
+        <v>106.76</v>
       </c>
       <c r="D219" t="n">
-        <v>109.88</v>
+        <v>110.49</v>
       </c>
       <c r="E219" t="n">
-        <v>108.51</v>
+        <v>109.04</v>
       </c>
       <c r="F219" t="n">
-        <v>104.42</v>
+        <v>106.36</v>
       </c>
       <c r="G219" t="n">
-        <v>104.03</v>
+        <v>105.45</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2003-10</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>219</v>
       </c>
       <c r="C220" t="n">
-        <v>103.67</v>
+        <v>106.31</v>
       </c>
       <c r="D220" t="n">
-        <v>106.88</v>
+        <v>110.54</v>
       </c>
       <c r="E220" t="n">
-        <v>105.65</v>
+        <v>109.33</v>
       </c>
       <c r="F220" t="n">
-        <v>104.17</v>
+        <v>106.67</v>
       </c>
       <c r="G220" t="n">
-        <v>102.46</v>
+        <v>104.73</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2003-09</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>220</v>
       </c>
       <c r="C221" t="n">
-        <v>102.17</v>
+        <v>105.47</v>
       </c>
       <c r="D221" t="n">
-        <v>103.52</v>
+        <v>109.88</v>
       </c>
       <c r="E221" t="n">
-        <v>104.21</v>
+        <v>108.51</v>
       </c>
       <c r="F221" t="n">
-        <v>106.22</v>
+        <v>104.42</v>
       </c>
       <c r="G221" t="n">
-        <v>101.14</v>
+        <v>104.03</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2003-08</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>221</v>
       </c>
       <c r="C222" t="n">
-        <v>101.91</v>
+        <v>103.67</v>
       </c>
       <c r="D222" t="n">
-        <v>102.38</v>
+        <v>106.88</v>
       </c>
       <c r="E222" t="n">
-        <v>103.43</v>
+        <v>105.65</v>
       </c>
       <c r="F222" t="n">
-        <v>106.38</v>
+        <v>104.17</v>
       </c>
       <c r="G222" t="n">
-        <v>101.17</v>
+        <v>102.46</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2003-07</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>222</v>
       </c>
       <c r="C223" t="n">
-        <v>101.49</v>
+        <v>102.17</v>
       </c>
       <c r="D223" t="n">
-        <v>101.12</v>
+        <v>103.52</v>
       </c>
       <c r="E223" t="n">
-        <v>103.81</v>
+        <v>104.21</v>
       </c>
       <c r="F223" t="n">
-        <v>106.7</v>
+        <v>106.22</v>
       </c>
       <c r="G223" t="n">
-        <v>100.91</v>
+        <v>101.14</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2003-06</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>223</v>
       </c>
       <c r="C224" t="n">
-        <v>100.83</v>
+        <v>101.91</v>
       </c>
       <c r="D224" t="n">
-        <v>99.39</v>
+        <v>102.38</v>
       </c>
       <c r="E224" t="n">
-        <v>103.88</v>
+        <v>103.43</v>
       </c>
       <c r="F224" t="n">
-        <v>106.55</v>
+        <v>106.38</v>
       </c>
       <c r="G224" t="n">
-        <v>100.54</v>
+        <v>101.17</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2003-05</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>224</v>
       </c>
       <c r="C225" t="n">
-        <v>100.97</v>
+        <v>101.49</v>
       </c>
       <c r="D225" t="n">
-        <v>99.42</v>
+        <v>101.12</v>
       </c>
       <c r="E225" t="n">
-        <v>103.48</v>
+        <v>103.81</v>
       </c>
       <c r="F225" t="n">
-        <v>108.14</v>
+        <v>106.7</v>
       </c>
       <c r="G225" t="n">
-        <v>100.58</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>225</v>
       </c>
       <c r="C226" t="n">
-        <v>101.59</v>
+        <v>100.83</v>
       </c>
       <c r="D226" t="n">
-        <v>100.33</v>
+        <v>99.39</v>
       </c>
       <c r="E226" t="n">
-        <v>103.09</v>
+        <v>103.88</v>
       </c>
       <c r="F226" t="n">
-        <v>113.02</v>
+        <v>106.55</v>
       </c>
       <c r="G226" t="n">
-        <v>100.63</v>
+        <v>100.54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2003-03</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>226</v>
       </c>
       <c r="C227" t="n">
-        <v>101.74</v>
+        <v>100.97</v>
       </c>
       <c r="D227" t="n">
-        <v>99.93000000000001</v>
+        <v>99.42</v>
       </c>
       <c r="E227" t="n">
-        <v>103.2</v>
+        <v>103.48</v>
       </c>
       <c r="F227" t="n">
-        <v>115.31</v>
+        <v>108.14</v>
       </c>
       <c r="G227" t="n">
-        <v>100.72</v>
+        <v>100.58</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2003-02</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>227</v>
       </c>
       <c r="C228" t="n">
-        <v>101.01</v>
+        <v>101.59</v>
       </c>
       <c r="D228" t="n">
-        <v>97.72</v>
+        <v>100.33</v>
       </c>
       <c r="E228" t="n">
-        <v>102.55</v>
+        <v>103.09</v>
       </c>
       <c r="F228" t="n">
-        <v>115.78</v>
+        <v>113.02</v>
       </c>
       <c r="G228" t="n">
-        <v>100.39</v>
+        <v>100.63</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2003-01</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>228</v>
       </c>
       <c r="C229" t="n">
-        <v>100.59</v>
+        <v>101.74</v>
       </c>
       <c r="D229" t="n">
-        <v>99.29000000000001</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="E229" t="n">
-        <v>102.08</v>
+        <v>103.2</v>
       </c>
       <c r="F229" t="n">
-        <v>113.65</v>
+        <v>115.31</v>
       </c>
       <c r="G229" t="n">
-        <v>99.48</v>
+        <v>100.72</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2002-12</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>229</v>
       </c>
       <c r="C230" t="n">
-        <v>99.47</v>
+        <v>101.01</v>
       </c>
       <c r="D230" t="n">
-        <v>97.63</v>
+        <v>97.72</v>
       </c>
       <c r="E230" t="n">
-        <v>101.78</v>
+        <v>102.55</v>
       </c>
       <c r="F230" t="n">
-        <v>109.85</v>
+        <v>115.78</v>
       </c>
       <c r="G230" t="n">
-        <v>98.83</v>
+        <v>100.39</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2002-11</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>230</v>
       </c>
       <c r="C231" t="n">
-        <v>98.87</v>
+        <v>100.59</v>
       </c>
       <c r="D231" t="n">
-        <v>97.33</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="E231" t="n">
-        <v>101.5</v>
+        <v>102.08</v>
       </c>
       <c r="F231" t="n">
-        <v>107.95</v>
+        <v>113.65</v>
       </c>
       <c r="G231" t="n">
-        <v>98.25</v>
+        <v>99.48</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2002-10</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>231</v>
       </c>
       <c r="C232" t="n">
-        <v>98.26000000000001</v>
+        <v>99.47</v>
       </c>
       <c r="D232" t="n">
-        <v>96.7</v>
+        <v>97.63</v>
       </c>
       <c r="E232" t="n">
         <v>101.78</v>
       </c>
       <c r="F232" t="n">
-        <v>105.58</v>
+        <v>109.85</v>
       </c>
       <c r="G232" t="n">
-        <v>97.84</v>
+        <v>98.83</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2002-09</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>232</v>
       </c>
       <c r="C233" t="n">
-        <v>97.92</v>
+        <v>98.87</v>
       </c>
       <c r="D233" t="n">
-        <v>96.27</v>
+        <v>97.33</v>
       </c>
       <c r="E233" t="n">
-        <v>102.68</v>
+        <v>101.5</v>
       </c>
       <c r="F233" t="n">
-        <v>103.9</v>
+        <v>107.95</v>
       </c>
       <c r="G233" t="n">
-        <v>97.66</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2002-08</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>233</v>
       </c>
       <c r="C234" t="n">
-        <v>97.56999999999999</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>95.58</v>
+        <v>96.7</v>
       </c>
       <c r="E234" t="n">
-        <v>102.61</v>
+        <v>101.78</v>
       </c>
       <c r="F234" t="n">
-        <v>102.73</v>
+        <v>105.58</v>
       </c>
       <c r="G234" t="n">
-        <v>97.53</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2002-07</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>234</v>
       </c>
       <c r="C235" t="n">
-        <v>97.34</v>
+        <v>97.92</v>
       </c>
       <c r="D235" t="n">
-        <v>96.17</v>
+        <v>96.27</v>
       </c>
       <c r="E235" t="n">
-        <v>102.8</v>
+        <v>102.68</v>
       </c>
       <c r="F235" t="n">
-        <v>100.31</v>
+        <v>103.9</v>
       </c>
       <c r="G235" t="n">
-        <v>97.26000000000001</v>
+        <v>97.66</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2002-06</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>235</v>
       </c>
       <c r="C236" t="n">
-        <v>97.59999999999999</v>
+        <v>97.56999999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>97.55</v>
+        <v>95.58</v>
       </c>
       <c r="E236" t="n">
-        <v>102.35</v>
+        <v>102.61</v>
       </c>
       <c r="F236" t="n">
-        <v>99.78</v>
+        <v>102.73</v>
       </c>
       <c r="G236" t="n">
-        <v>97.23999999999999</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2002-05</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>236</v>
       </c>
       <c r="C237" t="n">
-        <v>97.17</v>
+        <v>97.34</v>
       </c>
       <c r="D237" t="n">
-        <v>96.63</v>
+        <v>96.17</v>
       </c>
       <c r="E237" t="n">
-        <v>102.63</v>
+        <v>102.8</v>
       </c>
       <c r="F237" t="n">
-        <v>99.20999999999999</v>
+        <v>100.31</v>
       </c>
       <c r="G237" t="n">
-        <v>96.98</v>
+        <v>97.26000000000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2002-04</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>237</v>
       </c>
       <c r="C238" t="n">
-        <v>96.64</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>95.61</v>
+        <v>97.55</v>
       </c>
       <c r="E238" t="n">
-        <v>102.66</v>
+        <v>102.35</v>
       </c>
       <c r="F238" t="n">
-        <v>95.76000000000001</v>
+        <v>99.78</v>
       </c>
       <c r="G238" t="n">
-        <v>96.95</v>
+        <v>97.23999999999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>238</v>
       </c>
       <c r="C239" t="n">
-        <v>96.64</v>
+        <v>97.17</v>
       </c>
       <c r="D239" t="n">
-        <v>96.69</v>
+        <v>96.63</v>
       </c>
       <c r="E239" t="n">
-        <v>101.7</v>
+        <v>102.63</v>
       </c>
       <c r="F239" t="n">
-        <v>93.91</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="G239" t="n">
-        <v>96.84</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>239</v>
       </c>
       <c r="C240" t="n">
-        <v>97.31</v>
+        <v>96.64</v>
       </c>
       <c r="D240" t="n">
-        <v>99.61</v>
+        <v>95.61</v>
       </c>
       <c r="E240" t="n">
-        <v>101.5</v>
+        <v>102.66</v>
       </c>
       <c r="F240" t="n">
-        <v>93.39</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="G240" t="n">
-        <v>96.92</v>
+        <v>96.95</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2002-01</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>240</v>
       </c>
       <c r="C241" t="n">
-        <v>96.95</v>
+        <v>96.64</v>
       </c>
       <c r="D241" t="n">
-        <v>98.23</v>
+        <v>96.69</v>
       </c>
       <c r="E241" t="n">
-        <v>101.15</v>
+        <v>101.7</v>
       </c>
       <c r="F241" t="n">
-        <v>91.92</v>
+        <v>93.91</v>
       </c>
       <c r="G241" t="n">
-        <v>97.05</v>
+        <v>96.84</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2001-12</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>241</v>
       </c>
       <c r="C242" t="n">
-        <v>97.47</v>
+        <v>97.31</v>
       </c>
       <c r="D242" t="n">
-        <v>99.69</v>
+        <v>99.61</v>
       </c>
       <c r="E242" t="n">
-        <v>101.78</v>
+        <v>101.5</v>
       </c>
       <c r="F242" t="n">
-        <v>91.26000000000001</v>
+        <v>93.39</v>
       </c>
       <c r="G242" t="n">
-        <v>97.39</v>
+        <v>96.92</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2001-11</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>242</v>
       </c>
       <c r="C243" t="n">
-        <v>98</v>
+        <v>96.95</v>
       </c>
       <c r="D243" t="n">
-        <v>100.51</v>
+        <v>98.23</v>
       </c>
       <c r="E243" t="n">
-        <v>101.44</v>
+        <v>101.15</v>
       </c>
       <c r="F243" t="n">
-        <v>91.7</v>
+        <v>91.92</v>
       </c>
       <c r="G243" t="n">
-        <v>97.86</v>
+        <v>97.05</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2001-10</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>243</v>
       </c>
       <c r="C244" t="n">
-        <v>98.5</v>
+        <v>97.47</v>
       </c>
       <c r="D244" t="n">
-        <v>101.55</v>
+        <v>99.69</v>
       </c>
       <c r="E244" t="n">
-        <v>100.97</v>
+        <v>101.78</v>
       </c>
       <c r="F244" t="n">
-        <v>93.3</v>
+        <v>91.26000000000001</v>
       </c>
       <c r="G244" t="n">
-        <v>98.03</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2001-09</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>244</v>
       </c>
       <c r="C245" t="n">
-        <v>98.87</v>
+        <v>98</v>
       </c>
       <c r="D245" t="n">
-        <v>102.72</v>
+        <v>100.51</v>
       </c>
       <c r="E245" t="n">
-        <v>100.32</v>
+        <v>101.44</v>
       </c>
       <c r="F245" t="n">
-        <v>93.95</v>
+        <v>91.7</v>
       </c>
       <c r="G245" t="n">
-        <v>98.12</v>
+        <v>97.86</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2001-08</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>245</v>
       </c>
       <c r="C246" t="n">
-        <v>99.12</v>
+        <v>98.5</v>
       </c>
       <c r="D246" t="n">
-        <v>103.31</v>
+        <v>101.55</v>
       </c>
       <c r="E246" t="n">
-        <v>100.07</v>
+        <v>100.97</v>
       </c>
       <c r="F246" t="n">
-        <v>94.89</v>
+        <v>93.3</v>
       </c>
       <c r="G246" t="n">
-        <v>98.18000000000001</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2001-07</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>246</v>
       </c>
       <c r="C247" t="n">
-        <v>99.58</v>
+        <v>98.87</v>
       </c>
       <c r="D247" t="n">
-        <v>103.42</v>
+        <v>102.72</v>
       </c>
       <c r="E247" t="n">
-        <v>99.69</v>
+        <v>100.32</v>
       </c>
       <c r="F247" t="n">
-        <v>98.54000000000001</v>
+        <v>93.95</v>
       </c>
       <c r="G247" t="n">
-        <v>98.38</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2001-06</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>247</v>
       </c>
       <c r="C248" t="n">
-        <v>99.93000000000001</v>
+        <v>99.12</v>
       </c>
       <c r="D248" t="n">
-        <v>102.47</v>
+        <v>103.31</v>
       </c>
       <c r="E248" t="n">
-        <v>100.22</v>
+        <v>100.07</v>
       </c>
       <c r="F248" t="n">
-        <v>103.24</v>
+        <v>94.89</v>
       </c>
       <c r="G248" t="n">
-        <v>98.63</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2001-05</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>248</v>
       </c>
       <c r="C249" t="n">
-        <v>100.23</v>
+        <v>99.58</v>
       </c>
       <c r="D249" t="n">
-        <v>102.1</v>
+        <v>103.42</v>
       </c>
       <c r="E249" t="n">
-        <v>100.29</v>
+        <v>99.69</v>
       </c>
       <c r="F249" t="n">
-        <v>105.63</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="G249" t="n">
-        <v>98.90000000000001</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2001-04</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>249</v>
       </c>
       <c r="C250" t="n">
-        <v>100.45</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D250" t="n">
-        <v>101.86</v>
+        <v>102.47</v>
       </c>
       <c r="E250" t="n">
-        <v>100.16</v>
+        <v>100.22</v>
       </c>
       <c r="F250" t="n">
-        <v>105.65</v>
+        <v>103.24</v>
       </c>
       <c r="G250" t="n">
-        <v>99.31999999999999</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2001-03</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>250</v>
       </c>
       <c r="C251" t="n">
-        <v>100.22</v>
+        <v>100.23</v>
       </c>
       <c r="D251" t="n">
-        <v>99.92</v>
+        <v>102.1</v>
       </c>
       <c r="E251" t="n">
-        <v>100.4</v>
+        <v>100.29</v>
       </c>
       <c r="F251" t="n">
-        <v>106.16</v>
+        <v>105.63</v>
       </c>
       <c r="G251" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2001-02</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>251</v>
       </c>
       <c r="C252" t="n">
-        <v>99.95999999999999</v>
+        <v>100.45</v>
       </c>
       <c r="D252" t="n">
-        <v>98.2</v>
+        <v>101.86</v>
       </c>
       <c r="E252" t="n">
-        <v>101.02</v>
+        <v>100.16</v>
       </c>
       <c r="F252" t="n">
-        <v>107.74</v>
+        <v>105.65</v>
       </c>
       <c r="G252" t="n">
-        <v>99.59999999999999</v>
+        <v>99.31999999999999</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2001-01</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>252</v>
       </c>
       <c r="C253" t="n">
-        <v>100.42</v>
+        <v>100.22</v>
       </c>
       <c r="D253" t="n">
-        <v>98.62</v>
+        <v>99.92</v>
       </c>
       <c r="E253" t="n">
-        <v>101.72</v>
+        <v>100.4</v>
       </c>
       <c r="F253" t="n">
-        <v>109.77</v>
+        <v>106.16</v>
       </c>
       <c r="G253" t="n">
-        <v>99.89</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2000-12</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>253</v>
       </c>
       <c r="C254" t="n">
-        <v>100.21</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>97.05</v>
+        <v>98.2</v>
       </c>
       <c r="E254" t="n">
-        <v>101.06</v>
+        <v>101.02</v>
       </c>
       <c r="F254" t="n">
-        <v>114.27</v>
+        <v>107.74</v>
       </c>
       <c r="G254" t="n">
-        <v>99.66</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2000-11</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>254</v>
       </c>
       <c r="C255" t="n">
-        <v>99.83</v>
+        <v>100.42</v>
       </c>
       <c r="D255" t="n">
-        <v>95.09999999999999</v>
+        <v>98.62</v>
       </c>
       <c r="E255" t="n">
-        <v>101.11</v>
+        <v>101.72</v>
       </c>
       <c r="F255" t="n">
-        <v>116.28</v>
+        <v>109.77</v>
       </c>
       <c r="G255" t="n">
-        <v>99.56999999999999</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2000-10</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>255</v>
       </c>
       <c r="C256" t="n">
-        <v>99.68000000000001</v>
+        <v>100.21</v>
       </c>
       <c r="D256" t="n">
-        <v>93.73999999999999</v>
+        <v>97.05</v>
       </c>
       <c r="E256" t="n">
-        <v>101.46</v>
+        <v>101.06</v>
       </c>
       <c r="F256" t="n">
-        <v>117.08</v>
+        <v>114.27</v>
       </c>
       <c r="G256" t="n">
-        <v>99.76000000000001</v>
+        <v>99.66</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2000-09</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>256</v>
       </c>
       <c r="C257" t="n">
-        <v>99.43000000000001</v>
+        <v>99.83</v>
       </c>
       <c r="D257" t="n">
-        <v>92.95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>101.47</v>
+        <v>101.11</v>
       </c>
       <c r="F257" t="n">
-        <v>115.84</v>
+        <v>116.28</v>
       </c>
       <c r="G257" t="n">
-        <v>99.83</v>
+        <v>99.56999999999999</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2000-08</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>257</v>
       </c>
       <c r="C258" t="n">
-        <v>99.43000000000001</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="D258" t="n">
-        <v>93.23999999999999</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="E258" t="n">
-        <v>101.86</v>
+        <v>101.46</v>
       </c>
       <c r="F258" t="n">
-        <v>115.74</v>
+        <v>117.08</v>
       </c>
       <c r="G258" t="n">
-        <v>99.73</v>
+        <v>99.76000000000001</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2000-07</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>258</v>
       </c>
       <c r="C259" t="n">
-        <v>99.18000000000001</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="D259" t="n">
-        <v>92.59999999999999</v>
+        <v>92.95</v>
       </c>
       <c r="E259" t="n">
-        <v>101.63</v>
+        <v>101.47</v>
       </c>
       <c r="F259" t="n">
-        <v>113.96</v>
+        <v>115.84</v>
       </c>
       <c r="G259" t="n">
-        <v>99.78</v>
+        <v>99.83</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2000-06</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>259</v>
       </c>
       <c r="C260" t="n">
-        <v>98.67</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="D260" t="n">
-        <v>92.81</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="E260" t="n">
-        <v>101.55</v>
+        <v>101.86</v>
       </c>
       <c r="F260" t="n">
-        <v>108.86</v>
+        <v>115.74</v>
       </c>
       <c r="G260" t="n">
-        <v>99.48</v>
+        <v>99.73</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2000-05</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>260</v>
       </c>
       <c r="C261" t="n">
-        <v>98.20999999999999</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="D261" t="n">
-        <v>92.78</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E261" t="n">
-        <v>101.78</v>
+        <v>101.63</v>
       </c>
       <c r="F261" t="n">
-        <v>105.98</v>
+        <v>113.96</v>
       </c>
       <c r="G261" t="n">
-        <v>99.09999999999999</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2000-04</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>261</v>
       </c>
       <c r="C262" t="n">
-        <v>98.17</v>
+        <v>98.67</v>
       </c>
       <c r="D262" t="n">
-        <v>93.63</v>
+        <v>92.81</v>
       </c>
       <c r="E262" t="n">
-        <v>101.23</v>
+        <v>101.55</v>
       </c>
       <c r="F262" t="n">
-        <v>106.23</v>
+        <v>108.86</v>
       </c>
       <c r="G262" t="n">
-        <v>98.7</v>
+        <v>99.48</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2000-03</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>262</v>
       </c>
       <c r="C263" t="n">
-        <v>97.79000000000001</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="D263" t="n">
-        <v>93.48999999999999</v>
+        <v>92.78</v>
       </c>
       <c r="E263" t="n">
-        <v>100.39</v>
+        <v>101.78</v>
       </c>
       <c r="F263" t="n">
-        <v>105.79</v>
+        <v>105.98</v>
       </c>
       <c r="G263" t="n">
-        <v>98.17</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2000-02</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>263</v>
       </c>
       <c r="C264" t="n">
-        <v>97.45999999999999</v>
+        <v>98.17</v>
       </c>
       <c r="D264" t="n">
-        <v>93.62</v>
+        <v>93.63</v>
       </c>
       <c r="E264" t="n">
-        <v>100.16</v>
+        <v>101.23</v>
       </c>
       <c r="F264" t="n">
-        <v>103.48</v>
+        <v>106.23</v>
       </c>
       <c r="G264" t="n">
-        <v>97.88</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2000-01</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>264</v>
       </c>
       <c r="C265" t="n">
-        <v>97.56</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D265" t="n">
-        <v>94.18000000000001</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>99.54000000000001</v>
+        <v>100.39</v>
       </c>
       <c r="F265" t="n">
-        <v>103.12</v>
+        <v>105.79</v>
       </c>
       <c r="G265" t="n">
-        <v>97.91</v>
+        <v>98.17</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>1999-12</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>265</v>
       </c>
       <c r="C266" t="n">
-        <v>97.38</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D266" t="n">
-        <v>93.86</v>
+        <v>93.62</v>
       </c>
       <c r="E266" t="n">
-        <v>100.72</v>
+        <v>100.16</v>
       </c>
       <c r="F266" t="n">
-        <v>100.58</v>
+        <v>103.48</v>
       </c>
       <c r="G266" t="n">
-        <v>98.03</v>
+        <v>97.88</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>1999-11</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>266</v>
       </c>
       <c r="C267" t="n">
-        <v>97.5</v>
+        <v>97.56</v>
       </c>
       <c r="D267" t="n">
-        <v>94.43000000000001</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="E267" t="n">
-        <v>100.9</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="F267" t="n">
-        <v>100.03</v>
+        <v>103.12</v>
       </c>
       <c r="G267" t="n">
-        <v>98.05</v>
+        <v>97.91</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>1999-10</t>
+          <t>1999-12</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>267</v>
       </c>
       <c r="C268" t="n">
-        <v>97.33</v>
+        <v>97.38</v>
       </c>
       <c r="D268" t="n">
-        <v>94.76000000000001</v>
+        <v>93.86</v>
       </c>
       <c r="E268" t="n">
-        <v>100.3</v>
+        <v>100.72</v>
       </c>
       <c r="F268" t="n">
-        <v>98.66</v>
+        <v>100.58</v>
       </c>
       <c r="G268" t="n">
-        <v>97.84</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>1999-09</t>
+          <t>1999-11</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>268</v>
       </c>
       <c r="C269" t="n">
-        <v>97.25</v>
+        <v>97.5</v>
       </c>
       <c r="D269" t="n">
-        <v>94.78</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="E269" t="n">
-        <v>99.87</v>
+        <v>100.9</v>
       </c>
       <c r="F269" t="n">
-        <v>98.38</v>
+        <v>100.03</v>
       </c>
       <c r="G269" t="n">
-        <v>97.73</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>1999-08</t>
+          <t>1999-10</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>269</v>
       </c>
       <c r="C270" t="n">
-        <v>97.17</v>
+        <v>97.33</v>
       </c>
       <c r="D270" t="n">
-        <v>94.56999999999999</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="E270" t="n">
-        <v>100.26</v>
+        <v>100.3</v>
       </c>
       <c r="F270" t="n">
-        <v>98.22</v>
+        <v>98.66</v>
       </c>
       <c r="G270" t="n">
-        <v>97.69</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>1999-07</t>
+          <t>1999-09</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>270</v>
       </c>
       <c r="C271" t="n">
-        <v>96.89</v>
+        <v>97.25</v>
       </c>
       <c r="D271" t="n">
-        <v>94.63</v>
+        <v>94.78</v>
       </c>
       <c r="E271" t="n">
-        <v>101.55</v>
+        <v>99.87</v>
       </c>
       <c r="F271" t="n">
-        <v>97.15000000000001</v>
+        <v>98.38</v>
       </c>
       <c r="G271" t="n">
-        <v>97.39</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>1999-06</t>
+          <t>1999-08</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>271</v>
       </c>
       <c r="C272" t="n">
-        <v>96.81</v>
+        <v>97.17</v>
       </c>
       <c r="D272" t="n">
-        <v>94.94</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="E272" t="n">
-        <v>100.75</v>
+        <v>100.26</v>
       </c>
       <c r="F272" t="n">
-        <v>96.86</v>
+        <v>98.22</v>
       </c>
       <c r="G272" t="n">
-        <v>97.23999999999999</v>
+        <v>97.69</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>1999-07</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>272</v>
       </c>
       <c r="C273" t="n">
-        <v>97</v>
+        <v>96.89</v>
       </c>
       <c r="D273" t="n">
-        <v>95.56999999999999</v>
+        <v>94.63</v>
       </c>
       <c r="E273" t="n">
-        <v>99.98</v>
+        <v>101.55</v>
       </c>
       <c r="F273" t="n">
-        <v>97.62</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="G273" t="n">
-        <v>97.23999999999999</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>1999-04</t>
+          <t>1999-06</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>273</v>
       </c>
       <c r="C274" t="n">
-        <v>96.73999999999999</v>
+        <v>96.81</v>
       </c>
       <c r="D274" t="n">
-        <v>94.91</v>
+        <v>94.94</v>
       </c>
       <c r="E274" t="n">
-        <v>100.63</v>
+        <v>100.75</v>
       </c>
       <c r="F274" t="n">
-        <v>97.75</v>
+        <v>96.86</v>
       </c>
       <c r="G274" t="n">
-        <v>97.04000000000001</v>
+        <v>97.23999999999999</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>1999-03</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>274</v>
       </c>
       <c r="C275" t="n">
-        <v>96.56</v>
+        <v>97</v>
       </c>
       <c r="D275" t="n">
-        <v>94.77</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="E275" t="n">
-        <v>101.32</v>
+        <v>99.98</v>
       </c>
       <c r="F275" t="n">
-        <v>98.06999999999999</v>
+        <v>97.62</v>
       </c>
       <c r="G275" t="n">
-        <v>96.73999999999999</v>
+        <v>97.23999999999999</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>1999-02</t>
+          <t>1999-04</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>275</v>
       </c>
       <c r="C276" t="n">
-        <v>96.38</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="D276" t="n">
-        <v>94.72</v>
+        <v>94.91</v>
       </c>
       <c r="E276" t="n">
-        <v>100.84</v>
+        <v>100.63</v>
       </c>
       <c r="F276" t="n">
-        <v>98.2</v>
+        <v>97.75</v>
       </c>
       <c r="G276" t="n">
-        <v>96.48</v>
+        <v>97.04000000000001</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>1999-01</t>
+          <t>1999-03</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>276</v>
       </c>
       <c r="C277" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="D277" t="n">
+        <v>94.77</v>
+      </c>
+      <c r="E277" t="n">
+        <v>101.32</v>
+      </c>
+      <c r="F277" t="n">
+        <v>98.06999999999999</v>
+      </c>
+      <c r="G277" t="n">
+        <v>96.73999999999999</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>277</v>
+      </c>
+      <c r="C278" t="n">
+        <v>96.38</v>
+      </c>
+      <c r="D278" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="E278" t="n">
+        <v>100.84</v>
+      </c>
+      <c r="F278" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G278" t="n">
+        <v>96.48</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>278</v>
+      </c>
+      <c r="C279" t="n">
         <v>95.88</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D279" t="n">
         <v>93.63</v>
       </c>
-      <c r="E277" t="n">
+      <c r="E279" t="n">
         <v>99.75</v>
       </c>
-      <c r="F277" t="n">
+      <c r="F279" t="n">
         <v>97.88</v>
       </c>
-      <c r="G277" t="n">
+      <c r="G279" t="n">
         <v>96.17</v>
       </c>
     </row>
